--- a/data/mentor_clean.xlsx
+++ b/data/mentor_clean.xlsx
@@ -4,7 +4,7 @@
   <fileVersion lastEdited="4" lowestEdited="4" rupBuild="3820"/>
   <workbookPr date1904="0"/>
   <bookViews>
-    <workbookView activeTab="0" windowWidth="19200" windowHeight="8340"/>
+    <workbookView activeTab="0" windowWidth="18540" windowHeight="8020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88" count="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83" count="83">
   <si>
     <t>Business Development</t>
   </si>
@@ -36,235 +36,220 @@
     <t>Bi-weekly;</t>
   </si>
   <si>
+    <t>No preference</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>Mix</t>
+  </si>
+  <si>
+    <t>I Agree </t>
+  </si>
+  <si>
+    <t>Science &amp; Technology</t>
+  </si>
+  <si>
+    <t>Senior-level Manager</t>
+  </si>
+  <si>
+    <t>Monthly;</t>
+  </si>
+  <si>
+    <t>Amentum Women Network;</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Thriller</t>
+  </si>
+  <si>
+    <t>Legal</t>
+  </si>
+  <si>
+    <t>First-Line Manager</t>
+  </si>
+  <si>
+    <t>ET</t>
+  </si>
+  <si>
+    <t>Bi-weekly;Monthly;</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Thrillers/dramas</t>
+  </si>
+  <si>
+    <t>Clare Eagle</t>
+  </si>
+  <si>
+    <t>Operations Management</t>
+  </si>
+  <si>
+    <t>GMT</t>
+  </si>
+  <si>
+    <t>Extrovert</t>
+  </si>
+  <si>
+    <t>Framework Director</t>
+  </si>
+  <si>
+    <t>Alf Hibbert</t>
+  </si>
+  <si>
+    <t>7 - 10 Years</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Introvert</t>
+  </si>
+  <si>
+    <t>HR Director</t>
+  </si>
+  <si>
+    <t>Human Resources</t>
+  </si>
+  <si>
+    <t>Sean Wilson</t>
+  </si>
+  <si>
+    <t>10 - 15 Years</t>
+  </si>
+  <si>
+    <t>Vicky Robinson</t>
+  </si>
+  <si>
+    <t>Sci-fi</t>
+  </si>
+  <si>
+    <t>Justin Goldberg</t>
+  </si>
+  <si>
+    <t>4 - 6 Years</t>
+  </si>
+  <si>
+    <t>Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;</t>
+  </si>
+  <si>
+    <t>Veteran and Military Supporters Network;</t>
+  </si>
+  <si>
+    <t>Frank Ball</t>
+  </si>
+  <si>
+    <t>Eastern</t>
+  </si>
+  <si>
+    <t>Project Management</t>
+  </si>
+  <si>
+    <t>Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;</t>
+  </si>
+  <si>
+    <t>NextGen Network;</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>Individual Contributor</t>
+  </si>
+  <si>
+    <t>Abled/Neurodiverse Network;Amentum Women Network;</t>
+  </si>
+  <si>
+    <t>I am not a member of an ACN;</t>
+  </si>
+  <si>
+    <t>Golf</t>
+  </si>
+  <si>
+    <t>EST</t>
+  </si>
+  <si>
+    <t>1 - 3 Years</t>
+  </si>
+  <si>
+    <t>Historical Fiction</t>
+  </si>
+  <si>
+    <t>Program Management</t>
+  </si>
+  <si>
+    <t>Central</t>
+  </si>
+  <si>
+    <t>Cooking</t>
+  </si>
+  <si>
+    <t>SciFi</t>
+  </si>
+  <si>
+    <t>Operations Director</t>
+  </si>
+  <si>
+    <t>Science Fiction</t>
+  </si>
+  <si>
+    <t>Amentum Black Excellence Network;Veteran and Military Supporters Network;</t>
+  </si>
+  <si>
+    <t>Monthly;Bi-weekly;</t>
+  </si>
+  <si>
+    <t>Amentum Women Network;Hispanic Network;</t>
+  </si>
+  <si>
+    <t>Amentum Women Network;Veteran and Military Supporters Network;</t>
+  </si>
+  <si>
+    <t>UTC</t>
+  </si>
+  <si>
+    <t>Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;</t>
+  </si>
+  <si>
+    <t>Biography</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>Less than 1 yr</t>
+  </si>
+  <si>
+    <t>Comedy</t>
+  </si>
+  <si>
+    <t>Weekly;</t>
+  </si>
+  <si>
+    <t>Illy Andrews</t>
+  </si>
+  <si>
+    <t>Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;Global Perspective - Understanding of global markets and trends, as well as experience in working in diverse and international environments.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
-    <t>No preference</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>History</t>
-  </si>
-  <si>
-    <t>Mix</t>
-  </si>
-  <si>
-    <t>I Agree </t>
-  </si>
-  <si>
-    <t>Science &amp; Technology</t>
-  </si>
-  <si>
-    <t>Senior-level Manager</t>
-  </si>
-  <si>
-    <t>Monthly;</t>
-  </si>
-  <si>
-    <t>One</t>
-  </si>
-  <si>
-    <t>Amentum Women Network;</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Thriller</t>
-  </si>
-  <si>
-    <t>Legal</t>
-  </si>
-  <si>
-    <t>First-Line Manager</t>
-  </si>
-  <si>
-    <t>ET</t>
-  </si>
-  <si>
-    <t>Bi-weekly;Monthly;</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Thrillers/dramas</t>
-  </si>
-  <si>
-    <t>Clare Eagle</t>
-  </si>
-  <si>
-    <t>Operations Management</t>
-  </si>
-  <si>
-    <t>GMT</t>
-  </si>
-  <si>
-    <t>1-2</t>
-  </si>
-  <si>
-    <t>Extrovert</t>
-  </si>
-  <si>
-    <t>Framework Director</t>
-  </si>
-  <si>
-    <t>Alf Hibbert</t>
-  </si>
-  <si>
-    <t>7 - 10 Years</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Action</t>
-  </si>
-  <si>
-    <t>Introvert</t>
-  </si>
-  <si>
-    <t>HR Director</t>
-  </si>
-  <si>
-    <t>Human Resources</t>
-  </si>
-  <si>
-    <t>Sean Wilson</t>
-  </si>
-  <si>
-    <t>10 - 15 Years</t>
-  </si>
-  <si>
-    <t>Vicky Robinson</t>
-  </si>
-  <si>
-    <t>Sci-fi</t>
-  </si>
-  <si>
-    <t>Justin Goldberg</t>
-  </si>
-  <si>
-    <t>4 - 6 Years</t>
-  </si>
-  <si>
-    <t>Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;</t>
-  </si>
-  <si>
-    <t>Veteran and Military Supporters Network;</t>
-  </si>
-  <si>
-    <t>Frank Ball</t>
-  </si>
-  <si>
-    <t>Eastern</t>
-  </si>
-  <si>
-    <t>Project Management</t>
-  </si>
-  <si>
-    <t>Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;</t>
-  </si>
-  <si>
-    <t>2-3</t>
-  </si>
-  <si>
-    <t>NextGen Network;</t>
-  </si>
-  <si>
-    <t>action</t>
-  </si>
-  <si>
-    <t>Individual Contributor</t>
-  </si>
-  <si>
-    <t>Abled/Neurodiverse Network;Amentum Women Network;</t>
-  </si>
-  <si>
-    <t>I am not a member of an ACN;</t>
-  </si>
-  <si>
-    <t>Golf</t>
-  </si>
-  <si>
-    <t>EST</t>
-  </si>
-  <si>
-    <t>1 - 3 Years</t>
-  </si>
-  <si>
-    <t>Historical Fiction</t>
-  </si>
-  <si>
-    <t>Program Management</t>
-  </si>
-  <si>
-    <t>Central</t>
-  </si>
-  <si>
-    <t>Cooking</t>
-  </si>
-  <si>
-    <t>SciFi</t>
-  </si>
-  <si>
-    <t>Operations Director</t>
-  </si>
-  <si>
-    <t>Science Fiction</t>
-  </si>
-  <si>
-    <t>Amentum Black Excellence Network;Veteran and Military Supporters Network;</t>
-  </si>
-  <si>
-    <t>Monthly;Bi-weekly;</t>
-  </si>
-  <si>
-    <t>Amentum Women Network;Hispanic Network;</t>
-  </si>
-  <si>
-    <t>Amentum Women Network;Veteran and Military Supporters Network;</t>
-  </si>
-  <si>
-    <t>UTC</t>
-  </si>
-  <si>
-    <t>Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;</t>
-  </si>
-  <si>
-    <t>Biography</t>
-  </si>
-  <si>
-    <t>Engineering</t>
-  </si>
-  <si>
-    <t>Less than 1 yr</t>
-  </si>
-  <si>
-    <t>Comedy</t>
-  </si>
-  <si>
-    <t>Weekly;</t>
-  </si>
-  <si>
-    <t>Illy Andrews</t>
-  </si>
-  <si>
-    <t>Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;Global Perspective - Understanding of global markets and trends, as well as experience in working in diverse and international environments.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;</t>
-  </si>
-  <si>
     <t>Director, Human Resources</t>
   </si>
   <si>
-    <t>Two</t>
-  </si>
-  <si>
     <t>Accounting &amp; Finance</t>
-  </si>
-  <si>
-    <t>one</t>
   </si>
   <si>
     <t>Gwen Clavon</t>
@@ -341,7 +326,7 @@
       <protection locked="1" hidden="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
       <protection locked="1" hidden="0"/>
@@ -350,8 +335,12 @@
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
       <protection locked="1" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="1" xfId="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+      <protection locked="1" hidden="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="1" xfId="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
       <protection locked="1" hidden="0"/>
     </xf>
   </cellXfs>
@@ -365,8 +354,9 @@
   </sheetPr>
   <dimension ref="A1:W73"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0" tabSelected="1">
-      <selection activeCell="A73" sqref="A73:V73"/>
+    <sheetView workbookViewId="0" tabSelected="1">
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="67.5" defaultRowHeight="14.4"/>
@@ -382,7 +372,7 @@
     <col min="9" max="9" style="1" width="44.778261217948724" bestFit="1" customWidth="1"/>
     <col min="10" max="10" style="1" width="175.322796474359" bestFit="1" customWidth="1"/>
     <col min="11" max="11" style="1" width="42.89266025641026" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" style="1" width="53.88247596153846" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" style="1" width="23.998557692307696" customWidth="1"/>
     <col min="13" max="13" style="1" width="67.55784455128206" bestFit="1" customWidth="1"/>
     <col min="14" max="14" style="1" width="60.33923076923078" bestFit="1" customWidth="1"/>
     <col min="15" max="15" style="1" width="69.78628205128206" bestFit="1" customWidth="1"/>
@@ -514,7 +504,7 @@
         </is>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" ht="16.5">
       <c r="A2" t="inlineStr">
         <is>
           <t>Dan Ourada</t>
@@ -560,79 +550,79 @@
       <c r="K2" t="s">
         <v>4</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="2">
+        <v>3</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Abled/Neurodiverse Network;Amentum Women Network;Amentum Black Excellence Network;Veteran and Military Supporters Network;NextGen Network;LGBTQIA+ Network;Hispanic Network;Careers Network;</t>
+        </is>
+      </c>
+      <c r="N2" t="s">
         <v>5</v>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Abled/Neurodiverse Network;Amentum Women Network;Amentum Black Excellence Network;Veteran and Military Supporters Network;NextGen Network;LGBTQIA+ Network;Hispanic Network;Careers Network;</t>
-        </is>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Was mentored as a part of a similar program in our legacy companies (EG&amp;G, URS) and enjoy returning the opportunity for Amentum as I have for the past 5 years.</t>
+        </is>
+      </c>
+      <c r="P2" t="s">
         <v>6</v>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Was mentored as a part of a similar program in our legacy companies (EG&amp;G, URS) and enjoy returning the opportunity for Amentum as I have for the past 5 years.</t>
-        </is>
-      </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Flying, Fishing, Hunting</t>
+        </is>
+      </c>
+      <c r="R2" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Flying, Fishing, Hunting</t>
-        </is>
-      </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" t="s">
         <v>8</v>
       </c>
-      <c r="S2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>A secret</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>I do Angel Flights on the weekends.</t>
+        </is>
+      </c>
+      <c r="W2" t="s">
         <v>9</v>
       </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>A secret</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>I do Angel Flights on the weekends.</t>
-        </is>
-      </c>
-      <c r="W2" t="s">
+    </row>
+    <row r="3" spans="1:23" ht="16.5">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Cyndi Russell</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>M50751</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>cyndi.russell@nasa.gov</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Director Project Management</t>
+        </is>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Cyndi Russell</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>M50751</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>cyndi.russell@nasa.gov</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Director Project Management</t>
-        </is>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -653,10 +643,10 @@
         </is>
       </c>
       <c r="K3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -664,16 +654,16 @@
         </is>
       </c>
       <c r="N3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>I'm interested in the ability to help grow our next generation of leaders, and for this one to interact with people outside of my division.</t>
+        </is>
+      </c>
+      <c r="P3" t="s">
         <v>6</v>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>I'm interested in the ability to help grow our next generation of leaders, and for this one to interact with people outside of my division.</t>
-        </is>
-      </c>
-      <c r="P3" t="s">
-        <v>7</v>
-      </c>
       <c r="Q3" t="inlineStr">
         <is>
           <t>Quilting, Reading, Hiking, Yoga</t>
@@ -690,23 +680,23 @@
         </is>
       </c>
       <c r="T3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Long vacation in New Zealand</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>I traveled to Italy seven times to help integrate the International Space Station nodes and have walked inside the Harmony node that is flying on the station several times.</t>
+        </is>
+      </c>
+      <c r="W3" t="s">
         <v>9</v>
       </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>Long vacation in New Zealand</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>I traveled to Italy seven times to help integrate the International Space Station nodes and have walked inside the Harmony node that is flying on the station several times.</t>
-        </is>
-      </c>
-      <c r="W3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23">
+    </row>
+    <row r="4" spans="1:23" ht="16.5">
       <c r="A4" t="inlineStr">
         <is>
           <t>Haley Doran</t>
@@ -752,55 +742,53 @@
         </is>
       </c>
       <c r="K4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="2">
+        <v>2</v>
+      </c>
+      <c r="M4" t="s">
         <v>13</v>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>1, 2</t>
-        </is>
-      </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>I think it is a great learning experience for both parties and I like to share my experience to help other grow and succeed.  </t>
+        </is>
+      </c>
+      <c r="P4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Painting, sculpting </t>
+        </is>
+      </c>
+      <c r="R4" t="s">
         <v>15</v>
       </c>
-      <c r="N4" t="s">
-        <v>6</v>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>I think it is a great learning experience for both parties and I like to share my experience to help other grow and succeed.  </t>
-        </is>
-      </c>
-      <c r="P4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Painting, sculpting </t>
-        </is>
-      </c>
-      <c r="R4" t="s">
-        <v>17</v>
-      </c>
       <c r="S4" t="inlineStr">
         <is>
           <t>Self help</t>
         </is>
       </c>
       <c r="T4" t="s">
+        <v>8</v>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>To watch my family grow and thrive. </t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>I'm from England but left when I was 28 to live in Germany for ten years where I started my carrier, I moved to America four years ago and i'm now a proud US citizen.  </t>
+        </is>
+      </c>
+      <c r="W4" t="s">
         <v>9</v>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>To watch my family grow and thrive. </t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>I'm from England but left when I was 28 to live in Germany for ten years where I started my carrier, I moved to America four years ago and i'm now a proud US citizen.  </t>
-        </is>
-      </c>
-      <c r="W4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -825,18 +813,18 @@
         </is>
       </c>
       <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Mark Esposito &amp; Michele St. Mary</t>
+        </is>
+      </c>
+      <c r="H5" t="s">
         <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Mark Esposito &amp; Michele St. Mary</t>
-        </is>
-      </c>
-      <c r="H5" t="s">
-        <v>20</v>
       </c>
       <c r="I5" t="s">
         <v>3</v>
@@ -847,87 +835,87 @@
         </is>
       </c>
       <c r="K5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Abled/Neurodiverse Network;Amentum Black Excellence Network;Amentum Women Network;One World Network;Veteran and Military Supporters Network;NextGen Network;LGBTQIA+ Network;Hispanic Network;</t>
+        </is>
+      </c>
+      <c r="N5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Sharing of knowledge and experiences creates well-rounded employees and future leaders. Having 17+ years' experience navigating publicly traded companies and 25 years attorney experience, I have seen quite a lot and have learned many a lesson. Having held positions within the legal department including line of business attorney, project attorney, and litigator, I have negotiated billion-dollar contracts and managed high-stakes litigation, which led to significant interactions with the C-Suite, and executive and senior leadership. I am happy to share my experiences with others as another voice on the employee's "board of directors". </t>
+        </is>
+      </c>
+      <c r="P5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>I don't have a lot of time for hobbies, but I enjoy yoga. </t>
+        </is>
+      </c>
+      <c r="R5" t="s">
         <v>21</v>
       </c>
-      <c r="L5" t="s">
+      <c r="S5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T5" t="s">
+        <v>8</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Living abroad for a few months. </t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Despite my outward professional appearance, I am a punk rocker at heart. </t>
+        </is>
+      </c>
+      <c r="W5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="16.5">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Abled/Neurodiverse Network;Amentum Black Excellence Network;Amentum Women Network;One World Network;Veteran and Military Supporters Network;NextGen Network;LGBTQIA+ Network;Hispanic Network;</t>
-        </is>
-      </c>
-      <c r="N5" t="s">
-        <v>6</v>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>Sharing of knowledge and experiences creates well-rounded employees and future leaders. Having 17+ years' experience navigating publicly traded companies and 25 years attorney experience, I have seen quite a lot and have learned many a lesson. Having held positions within the legal department including line of business attorney, project attorney, and litigator, I have negotiated billion-dollar contracts and managed high-stakes litigation, which led to significant interactions with the C-Suite, and executive and senior leadership. I am happy to share my experiences with others as another voice on the employee's "board of directors". </t>
-        </is>
-      </c>
-      <c r="P5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>I don't have a lot of time for hobbies, but I enjoy yoga. </t>
-        </is>
-      </c>
-      <c r="R5" t="s">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MB00026161</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Clare.eagle@global.amentum.com</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Group Director (Major Projects &amp; Complex Engineering)</t>
+        </is>
+      </c>
+      <c r="E6" t="s">
         <v>23</v>
       </c>
-      <c r="S5" t="s">
-        <v>23</v>
-      </c>
-      <c r="T5" t="s">
-        <v>9</v>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>Living abroad for a few months. </t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>Despite my outward professional appearance, I am a punk rocker at heart. </t>
-        </is>
-      </c>
-      <c r="W5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
-      <c r="A6" t="s">
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Mike Houghton </t>
+        </is>
+      </c>
+      <c r="H6" t="s">
         <v>24</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MB00026161</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Clare.eagle@global.amentum.com</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Group Director (Major Projects &amp; Complex Engineering)</t>
-        </is>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Mike Houghton </t>
-        </is>
-      </c>
-      <c r="H6" t="s">
-        <v>26</v>
       </c>
       <c r="I6" t="s">
         <v>3</v>
@@ -938,10 +926,10 @@
         </is>
       </c>
       <c r="K6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" t="s">
-        <v>27</v>
+        <v>12</v>
+      </c>
+      <c r="L6" s="2">
+        <v>2</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -949,16 +937,16 @@
         </is>
       </c>
       <c r="N6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>I have developed and ran leadership development programs for what was Jacob’s and have a deep passion for developing a sustained pipeline of leaders. Active mentor for 4 others already. </t>
+        </is>
+      </c>
+      <c r="P6" t="s">
         <v>6</v>
       </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>I have developed and ran leadership development programs for what was Jacob’s and have a deep passion for developing a sustained pipeline of leaders. Active mentor for 4 others already. </t>
-        </is>
-      </c>
-      <c r="P6" t="s">
-        <v>7</v>
-      </c>
       <c r="Q6" t="inlineStr">
         <is>
           <t>Entertaining/Cooking</t>
@@ -975,23 +963,23 @@
         </is>
       </c>
       <c r="T6" t="s">
+        <v>8</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Last night at the Proms \ World Cup finals </t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>I have 9 brothers and sisters and 21 nieces and nephews. Huge family. </t>
+        </is>
+      </c>
+      <c r="W6" t="s">
         <v>9</v>
       </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>Last night at the Proms \ World Cup finals </t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>I have 9 brothers and sisters and 21 nieces and nephews. Huge family. </t>
-        </is>
-      </c>
-      <c r="W6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23">
+    </row>
+    <row r="7" spans="1:23" ht="16.5">
       <c r="A7" t="inlineStr">
         <is>
           <t>Robbie Edmonstone</t>
@@ -1018,7 +1006,7 @@
         </is>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -1037,12 +1025,10 @@
         </is>
       </c>
       <c r="K7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>One, ideally from a historically disadvantaged group </t>
-        </is>
+        <v>12</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1050,16 +1036,16 @@
         </is>
       </c>
       <c r="N7" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Share experience and best practices from working with leadership and career trajectory. Also keen to help those who need help the most and whose voices aren't necessarily being heard. </t>
+        </is>
+      </c>
+      <c r="P7" t="s">
         <v>6</v>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>Share experience and best practices from working with leadership and career trajectory. Also keen to help those who need help the most and whose voices aren't necessarily being heard. </t>
-        </is>
-      </c>
-      <c r="P7" t="s">
-        <v>7</v>
-      </c>
       <c r="Q7" t="inlineStr">
         <is>
           <t>Music - I write and perform with my band (www.thechinaskis.com)</t>
@@ -1076,7 +1062,7 @@
         </is>
       </c>
       <c r="T7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
@@ -1089,7 +1075,7 @@
         </is>
       </c>
       <c r="W7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1109,66 +1095,66 @@
         </is>
       </c>
       <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>UK GMT</t>
+        </is>
+      </c>
+      <c r="I8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;</t>
+        </is>
+      </c>
+      <c r="K8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="M8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" t="s">
+        <v>5</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>I am passionate about developing our talent and helping people progress.  I am also keen to get new perspectives on the company performance, culture and our clients.   </t>
+        </is>
+      </c>
+      <c r="P8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Playing golf</t>
+        </is>
+      </c>
+      <c r="R8" t="s">
         <v>30</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>UK GMT</t>
-        </is>
-      </c>
-      <c r="I8" t="s">
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Science fact</t>
+        </is>
+      </c>
+      <c r="T8" t="s">
         <v>31</v>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;</t>
-        </is>
-      </c>
-      <c r="K8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" t="s">
-        <v>15</v>
-      </c>
-      <c r="N8" t="s">
-        <v>6</v>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>I am passionate about developing our talent and helping people progress.  I am also keen to get new perspectives on the company performance, culture and our clients.   </t>
-        </is>
-      </c>
-      <c r="P8" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>Playing golf</t>
-        </is>
-      </c>
-      <c r="R8" t="s">
-        <v>33</v>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>Science fact</t>
-        </is>
-      </c>
-      <c r="T8" t="s">
-        <v>34</v>
-      </c>
       <c r="U8" t="inlineStr">
         <is>
           <t>To visit Iceland and see the northern lights from the wilderness. </t>
@@ -1180,7 +1166,7 @@
         </is>
       </c>
       <c r="W8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1200,41 +1186,41 @@
         </is>
       </c>
       <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Eastern Time</t>
+        </is>
+      </c>
+      <c r="I9" t="s">
         <v>35</v>
       </c>
-      <c r="E9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Eastern Time</t>
-        </is>
-      </c>
-      <c r="I9" t="s">
-        <v>38</v>
-      </c>
       <c r="J9" t="inlineStr">
         <is>
           <t>Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;</t>
         </is>
       </c>
       <c r="K9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" t="s">
-        <v>32</v>
+        <v>19</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="M9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1242,7 +1228,7 @@
         </is>
       </c>
       <c r="P9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1255,20 +1241,20 @@
         </is>
       </c>
       <c r="T9" t="s">
+        <v>8</v>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Travel to Hungary, write a children's book about my dog, Smokey the Sheltie</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>I am a Reality TV junkie ;-)</t>
+        </is>
+      </c>
+      <c r="W9" t="s">
         <v>9</v>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>Travel to Hungary, write a children's book about my dog, Smokey the Sheltie</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>I am a Reality TV junkie ;-)</t>
-        </is>
-      </c>
-      <c r="W9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1293,16 +1279,16 @@
         </is>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I10" t="s">
         <v>3</v>
@@ -1313,10 +1299,10 @@
         </is>
       </c>
       <c r="K10" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10" t="s">
-        <v>32</v>
+        <v>12</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1324,29 +1310,29 @@
         </is>
       </c>
       <c r="N10" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>It is an opportunity for development (for me) and to build a wider network.</t>
+        </is>
+      </c>
+      <c r="P10" t="s">
         <v>6</v>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>It is an opportunity for development (for me) and to build a wider network.</t>
-        </is>
-      </c>
-      <c r="P10" t="s">
-        <v>7</v>
-      </c>
       <c r="Q10" t="inlineStr">
         <is>
           <t>Singing (in a choir)</t>
         </is>
       </c>
       <c r="R10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="S10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="T10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
@@ -1359,7 +1345,7 @@
         </is>
       </c>
       <c r="W10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1390,44 +1376,44 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" t="s">
         <v>41</v>
       </c>
-      <c r="H11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" t="s">
-        <v>42</v>
-      </c>
-      <c r="J11" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" t="s">
-        <v>32</v>
-      </c>
-      <c r="M11" t="s">
-        <v>44</v>
-      </c>
       <c r="N11" t="s">
+        <v>5</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>To help others develop and enjoy a successful career and life</t>
+        </is>
+      </c>
+      <c r="P11" t="s">
         <v>6</v>
       </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>To help others develop and enjoy a successful career and life</t>
-        </is>
-      </c>
-      <c r="P11" t="s">
-        <v>7</v>
-      </c>
       <c r="Q11" t="inlineStr">
         <is>
           <t>Running</t>
         </is>
       </c>
       <c r="R11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1435,20 +1421,20 @@
         </is>
       </c>
       <c r="T11" t="s">
+        <v>8</v>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Complete climbing the Munros</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>I have an allotment but I can't grow cabbages - can anyone provide advice?!</t>
+        </is>
+      </c>
+      <c r="W11" t="s">
         <v>9</v>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>Complete climbing the Munros</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>I have an allotment but I can't grow cabbages - can anyone provide advice?!</t>
-        </is>
-      </c>
-      <c r="W11" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1473,19 +1459,19 @@
         </is>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1493,56 +1479,56 @@
         </is>
       </c>
       <c r="K12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="M12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N12" t="s">
+        <v>14</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>I see the value in mentoring newer members of the workplace. I think I can give them a perspective on their career goals, helps set boundaries and pass on what I have learned in leadership classes.</t>
+        </is>
+      </c>
+      <c r="P12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Gardening, Scuba Diving</t>
+        </is>
+      </c>
+      <c r="R12" t="s">
         <v>15</v>
       </c>
-      <c r="N12" t="s">
-        <v>16</v>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>I see the value in mentoring newer members of the workplace. I think I can give them a perspective on their career goals, helps set boundaries and pass on what I have learned in leadership classes.</t>
-        </is>
-      </c>
-      <c r="P12" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>Gardening, Scuba Diving</t>
-        </is>
-      </c>
-      <c r="R12" t="s">
-        <v>17</v>
-      </c>
       <c r="S12" t="inlineStr">
         <is>
           <t>Spy novels</t>
         </is>
       </c>
       <c r="T12" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Travel to Antarctica</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>My dad, sister and brother in law are all taxidermists.</t>
+        </is>
+      </c>
+      <c r="W12" t="s">
         <v>9</v>
       </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>Travel to Antarctica</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>My dad, sister and brother in law are all taxidermists.</t>
-        </is>
-      </c>
-      <c r="W12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
+    </row>
+    <row r="13" spans="1:23" ht="16.5">
       <c r="A13" t="inlineStr">
         <is>
           <t>Kim Jackson</t>
@@ -1564,10 +1550,10 @@
         </is>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1583,28 +1569,28 @@
         <v>3</v>
       </c>
       <c r="J13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="2">
+        <v>3</v>
+      </c>
+      <c r="M13" t="s">
         <v>13</v>
       </c>
-      <c r="L13" t="s">
-        <v>49</v>
-      </c>
-      <c r="M13" t="s">
-        <v>15</v>
-      </c>
       <c r="N13" t="s">
+        <v>5</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>I enjoy helping others work through issues and guide them into selling themselves for the company</t>
+        </is>
+      </c>
+      <c r="P13" t="s">
         <v>6</v>
       </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>I enjoy helping others work through issues and guide them into selling themselves for the company</t>
-        </is>
-      </c>
-      <c r="P13" t="s">
-        <v>7</v>
-      </c>
       <c r="Q13" t="inlineStr">
         <is>
           <t>Walking/hiking</t>
@@ -1621,23 +1607,23 @@
         </is>
       </c>
       <c r="T13" t="s">
+        <v>8</v>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>African safari</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Born in new zealand</t>
+        </is>
+      </c>
+      <c r="W13" t="s">
         <v>9</v>
       </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>African safari</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>Born in new zealand</t>
-        </is>
-      </c>
-      <c r="W13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
+    </row>
+    <row r="14" spans="1:23" ht="16.5">
       <c r="A14" t="inlineStr">
         <is>
           <t>Leyla Balaskas</t>
@@ -1659,7 +1645,7 @@
         </is>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F14" t="s">
         <v>1</v>
@@ -1670,36 +1656,36 @@
         </is>
       </c>
       <c r="H14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;</t>
+        </is>
+      </c>
+      <c r="K14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="2">
+        <v>3</v>
+      </c>
+      <c r="M14" t="s">
         <v>46</v>
       </c>
-      <c r="I14" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;</t>
-        </is>
-      </c>
-      <c r="K14" t="s">
-        <v>13</v>
-      </c>
-      <c r="L14" t="s">
-        <v>49</v>
-      </c>
-      <c r="M14" t="s">
-        <v>50</v>
-      </c>
       <c r="N14" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>As having great mentors, I believe in paying it forward always </t>
+        </is>
+      </c>
+      <c r="P14" t="s">
         <v>6</v>
       </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>As having great mentors, I believe in paying it forward always </t>
-        </is>
-      </c>
-      <c r="P14" t="s">
-        <v>7</v>
-      </c>
       <c r="Q14" t="inlineStr">
         <is>
           <t>Gardening/Weightlifting </t>
@@ -1716,20 +1702,20 @@
         </is>
       </c>
       <c r="T14" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Own land with a horse </t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Compete in Olympic weightlifting </t>
+        </is>
+      </c>
+      <c r="W14" t="s">
         <v>9</v>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>Own land with a horse </t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>Compete in Olympic weightlifting </t>
-        </is>
-      </c>
-      <c r="W14" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1754,10 +1740,10 @@
         </is>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1765,7 +1751,7 @@
         </is>
       </c>
       <c r="H15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I15" t="s">
         <v>3</v>
@@ -1776,32 +1762,32 @@
         </is>
       </c>
       <c r="K15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" t="s">
         <v>13</v>
       </c>
-      <c r="L15" t="s">
-        <v>32</v>
-      </c>
-      <c r="M15" t="s">
-        <v>15</v>
-      </c>
       <c r="N15" t="s">
+        <v>5</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>To develop future leaders, share knowledge and experience, give back from benefits I have received </t>
+        </is>
+      </c>
+      <c r="P15" t="s">
         <v>6</v>
       </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>To develop future leaders, share knowledge and experience, give back from benefits I have received </t>
-        </is>
-      </c>
-      <c r="P15" t="s">
-        <v>7</v>
-      </c>
       <c r="Q15" t="inlineStr">
         <is>
           <t>walking</t>
         </is>
       </c>
       <c r="R15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1809,20 +1795,20 @@
         </is>
       </c>
       <c r="T15" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>travel</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Previous champion ten-pin bowling</t>
+        </is>
+      </c>
+      <c r="W15" t="s">
         <v>9</v>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>travel</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>Previous champion ten-pin bowling</t>
-        </is>
-      </c>
-      <c r="W15" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1863,7 +1849,7 @@
         </is>
       </c>
       <c r="I16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1871,32 +1857,32 @@
         </is>
       </c>
       <c r="K16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" t="s">
         <v>13</v>
       </c>
-      <c r="L16" t="s">
-        <v>22</v>
-      </c>
-      <c r="M16" t="s">
-        <v>15</v>
-      </c>
       <c r="N16" t="s">
+        <v>5</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Knowledge sharing. Uplift and support each other.</t>
+        </is>
+      </c>
+      <c r="P16" t="s">
         <v>6</v>
       </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>Knowledge sharing. Uplift and support each other.</t>
-        </is>
-      </c>
-      <c r="P16" t="s">
-        <v>7</v>
-      </c>
       <c r="Q16" t="inlineStr">
         <is>
           <t>Long distance running, Yoga </t>
         </is>
       </c>
       <c r="R16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1904,23 +1890,23 @@
         </is>
       </c>
       <c r="T16" t="s">
+        <v>8</v>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Travel and Outdoor Adventure for all the mountains in the world </t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>I run ultra-marathons, and teach yoga </t>
+        </is>
+      </c>
+      <c r="W16" t="s">
         <v>9</v>
       </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>Travel and Outdoor Adventure for all the mountains in the world </t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>I run ultra-marathons, and teach yoga </t>
-        </is>
-      </c>
-      <c r="W16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23">
+    </row>
+    <row r="17" spans="1:23" ht="16.5">
       <c r="A17" t="inlineStr">
         <is>
           <t>Sonia Pratley </t>
@@ -1945,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1953,7 +1939,7 @@
         </is>
       </c>
       <c r="H17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I17" t="s">
         <v>3</v>
@@ -1964,18 +1950,16 @@
         </is>
       </c>
       <c r="K17" t="s">
-        <v>13</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>1-2 as I am already supporting Product leads</t>
-        </is>
+        <v>12</v>
+      </c>
+      <c r="L17" s="2">
+        <v>2</v>
       </c>
       <c r="M17" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1983,7 +1967,7 @@
         </is>
       </c>
       <c r="P17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -2001,20 +1985,20 @@
         </is>
       </c>
       <c r="T17" t="s">
+        <v>8</v>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>To drive an Aston Martin</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>I am a grandmother to 3 Step grandchildren</t>
+        </is>
+      </c>
+      <c r="W17" t="s">
         <v>9</v>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>To drive an Aston Martin</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>I am a grandmother to 3 Step grandchildren</t>
-        </is>
-      </c>
-      <c r="W17" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -2039,10 +2023,10 @@
         </is>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -2050,7 +2034,7 @@
         </is>
       </c>
       <c r="H18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I18" t="s">
         <v>3</v>
@@ -2061,30 +2045,30 @@
         </is>
       </c>
       <c r="K18" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" t="s">
-        <v>32</v>
+        <v>19</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="M18" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N18" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Impart project delivery experience</t>
+        </is>
+      </c>
+      <c r="P18" t="s">
         <v>6</v>
       </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>Impart project delivery experience</t>
-        </is>
-      </c>
-      <c r="P18" t="s">
-        <v>7</v>
-      </c>
       <c r="Q18" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2092,7 +2076,7 @@
         </is>
       </c>
       <c r="T18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
@@ -2105,10 +2089,10 @@
         </is>
       </c>
       <c r="W18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="16.5">
       <c r="A19" t="inlineStr">
         <is>
           <t>Melanie Harrison</t>
@@ -2133,18 +2117,18 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Laine Klein</t>
+        </is>
+      </c>
+      <c r="H19" t="s">
         <v>52</v>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Laine Klein</t>
-        </is>
-      </c>
-      <c r="H19" t="s">
-        <v>56</v>
-      </c>
       <c r="I19" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -2154,148 +2138,144 @@
       <c r="K19" t="s">
         <v>4</v>
       </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Prefer one mentee</t>
-        </is>
+      <c r="L19" s="2">
+        <v>1</v>
       </c>
       <c r="M19" t="s">
+        <v>49</v>
+      </c>
+      <c r="N19" t="s">
+        <v>5</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>I have always enjoyed mentoring junior colleagues, in an unofficial capacity.  It is such an important role in building confidence and establishing connection to the company, especially in such a large firm.  I am excited to share my perspectives and gain new ones from a mentee.</t>
+        </is>
+      </c>
+      <c r="P19" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>Spending time outdoors at the coast</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Drama/Comedy/Adventure</t>
+        </is>
+      </c>
+      <c r="S19" t="s">
+        <v>54</v>
+      </c>
+      <c r="T19" t="s">
+        <v>8</v>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>I would like to be able to spend an extended period living temporarily in Europe.</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>I am an advanced practitioner of Pilates</t>
+        </is>
+      </c>
+      <c r="W19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="16.5">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Shawn Cali</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>330159</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Shawn.Cali@amentum.com</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>VP International Operations</t>
+        </is>
+      </c>
+      <c r="E20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Jonathan "Dodd" Townsend</t>
+        </is>
+      </c>
+      <c r="H20" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" t="s">
         <v>53</v>
       </c>
-      <c r="N19" t="s">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;</t>
+        </is>
+      </c>
+      <c r="K20" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="2">
+        <v>2</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Abled/Neurodiverse Network;Veteran and Military Supporters Network;</t>
+        </is>
+      </c>
+      <c r="N20" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>I have participated in such programs at Amentum, Booz Allen and as a civil servant - always found them worthwhile</t>
+        </is>
+      </c>
+      <c r="P20" t="s">
         <v>6</v>
       </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>I have always enjoyed mentoring junior colleagues, in an unofficial capacity.  It is such an important role in building confidence and establishing connection to the company, especially in such a large firm.  I am excited to share my perspectives and gain new ones from a mentee.</t>
-        </is>
-      </c>
-      <c r="P19" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>Spending time outdoors at the coast</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>Drama/Comedy/Adventure</t>
-        </is>
-      </c>
-      <c r="S19" t="s">
+      <c r="Q20" t="s">
+        <v>57</v>
+      </c>
+      <c r="R20" t="s">
         <v>58</v>
       </c>
-      <c r="T19" t="s">
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>Historical/Biography</t>
+        </is>
+      </c>
+      <c r="T20" t="s">
+        <v>8</v>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Move overseas</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>I was at the 1980 U.S. Hockey Gold Medal Game (not the Russia one, but the actual gold medal game)</t>
+        </is>
+      </c>
+      <c r="W20" t="s">
         <v>9</v>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>I would like to be able to spend an extended period living temporarily in Europe.</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>I am an advanced practitioner of Pilates</t>
-        </is>
-      </c>
-      <c r="W19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Shawn Cali</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>330159</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Shawn.Cali@amentum.com</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>VP International Operations</t>
-        </is>
-      </c>
-      <c r="E20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Jonathan "Dodd" Townsend</t>
-        </is>
-      </c>
-      <c r="H20" t="s">
-        <v>60</v>
-      </c>
-      <c r="I20" t="s">
-        <v>57</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;</t>
-        </is>
-      </c>
-      <c r="K20" t="s">
-        <v>13</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>I did 2 last go around and it worked fine</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>Abled/Neurodiverse Network;Veteran and Military Supporters Network;</t>
-        </is>
-      </c>
-      <c r="N20" t="s">
-        <v>6</v>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>I have participated in such programs at Amentum, Booz Allen and as a civil servant - always found them worthwhile</t>
-        </is>
-      </c>
-      <c r="P20" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>61</v>
-      </c>
-      <c r="R20" t="s">
-        <v>62</v>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>Historical/Biography</t>
-        </is>
-      </c>
-      <c r="T20" t="s">
-        <v>9</v>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>Move overseas</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>I was at the 1980 U.S. Hockey Gold Medal Game (not the Russia one, but the actual gold medal game)</t>
-        </is>
-      </c>
-      <c r="W20" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2315,35 +2295,35 @@
         </is>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Raj Pathak</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="I21" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" t="s">
         <v>12</v>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Raj Pathak</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="I21" t="s">
-        <v>42</v>
-      </c>
-      <c r="J21" t="s">
-        <v>48</v>
-      </c>
-      <c r="K21" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" t="s">
-        <v>32</v>
+      <c r="L21" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2351,44 +2331,44 @@
         </is>
       </c>
       <c r="N21" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>I am passionate about developing others</t>
+        </is>
+      </c>
+      <c r="P21" t="s">
         <v>6</v>
       </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>I am passionate about developing others</t>
-        </is>
-      </c>
-      <c r="P21" t="s">
-        <v>7</v>
-      </c>
       <c r="Q21" t="inlineStr">
         <is>
           <t>I have a small holding and enjoy time with my animals</t>
         </is>
       </c>
       <c r="R21" t="s">
+        <v>8</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>Dan Brown</t>
+        </is>
+      </c>
+      <c r="T21" t="s">
+        <v>8</v>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Work at Nasa</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>I own 6 St Bernard Dogs!</t>
+        </is>
+      </c>
+      <c r="W21" t="s">
         <v>9</v>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>Dan Brown</t>
-        </is>
-      </c>
-      <c r="T21" t="s">
-        <v>9</v>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>Work at Nasa</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>I own 6 St Bernard Dogs!</t>
-        </is>
-      </c>
-      <c r="W21" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2418,7 +2398,7 @@
         </is>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -2439,10 +2419,10 @@
         </is>
       </c>
       <c r="K22" t="s">
-        <v>13</v>
-      </c>
-      <c r="L22" t="s">
-        <v>32</v>
+        <v>12</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2450,7 +2430,7 @@
         </is>
       </c>
       <c r="N22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2458,7 +2438,7 @@
         </is>
       </c>
       <c r="P22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2476,23 +2456,23 @@
         </is>
       </c>
       <c r="T22" t="s">
+        <v>8</v>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Travel experiences</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>I've visited 49 states and 18 countries - hoping to go up to 50 and 50!</t>
+        </is>
+      </c>
+      <c r="W22" t="s">
         <v>9</v>
       </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>Travel experiences</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>I've visited 49 states and 18 countries - hoping to go up to 50 and 50!</t>
-        </is>
-      </c>
-      <c r="W22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23">
+    </row>
+    <row r="23" spans="1:23" ht="16.5">
       <c r="A23" t="inlineStr">
         <is>
           <t>Martin Ewence</t>
@@ -2514,47 +2494,47 @@
         </is>
       </c>
       <c r="E23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="I23" t="s">
+        <v>53</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Global Perspective - Understanding of global markets and trends, as well as experience in working in diverse and international environments.;</t>
+        </is>
+      </c>
+      <c r="K23" t="s">
         <v>12</v>
       </c>
-      <c r="G23" t="s">
-        <v>30</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="I23" t="s">
-        <v>57</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Global Perspective - Understanding of global markets and trends, as well as experience in working in diverse and international environments.;</t>
-        </is>
-      </c>
-      <c r="K23" t="s">
-        <v>13</v>
-      </c>
-      <c r="L23" t="s">
+      <c r="L23" s="2">
+        <v>1</v>
+      </c>
+      <c r="M23" t="s">
+        <v>41</v>
+      </c>
+      <c r="N23" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>To help our bright young people do even better.</t>
+        </is>
+      </c>
+      <c r="P23" t="s">
         <v>14</v>
       </c>
-      <c r="M23" t="s">
-        <v>44</v>
-      </c>
-      <c r="N23" t="s">
-        <v>6</v>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>To help our bright young people do even better.</t>
-        </is>
-      </c>
-      <c r="P23" t="s">
-        <v>16</v>
-      </c>
       <c r="Q23" t="inlineStr">
         <is>
           <t>Sailing, tennis, modern languages.</t>
@@ -2571,20 +2551,20 @@
         </is>
       </c>
       <c r="T23" t="s">
+        <v>8</v>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Get young people out to work.  Sail around the world.  Learn Russian.</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>I can do a very good scouse accent.</t>
+        </is>
+      </c>
+      <c r="W23" t="s">
         <v>9</v>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>Get young people out to work.  Sail around the world.  Learn Russian.</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>I can do a very good scouse accent.</t>
-        </is>
-      </c>
-      <c r="W23" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2612,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2625,7 +2605,7 @@
         </is>
       </c>
       <c r="I24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2633,10 +2613,10 @@
         </is>
       </c>
       <c r="K24" t="s">
-        <v>13</v>
-      </c>
-      <c r="L24" t="s">
-        <v>32</v>
+        <v>12</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2644,16 +2624,16 @@
         </is>
       </c>
       <c r="N24" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>People make organisations and people are interesting. The learning from any mentoring programme goes both ways.</t>
+        </is>
+      </c>
+      <c r="P24" t="s">
         <v>6</v>
       </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>People make organisations and people are interesting. The learning from any mentoring programme goes both ways.</t>
-        </is>
-      </c>
-      <c r="P24" t="s">
-        <v>7</v>
-      </c>
       <c r="Q24" t="inlineStr">
         <is>
           <t>Road cycling / rock climbing</t>
@@ -2670,23 +2650,23 @@
         </is>
       </c>
       <c r="T24" t="s">
+        <v>8</v>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>More cycling in beautiful places</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>First ever job was as a sailing instructor</t>
+        </is>
+      </c>
+      <c r="W24" t="s">
         <v>9</v>
       </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>More cycling in beautiful places</t>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>First ever job was as a sailing instructor</t>
-        </is>
-      </c>
-      <c r="W24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23">
+    </row>
+    <row r="25" spans="1:23" ht="16.5">
       <c r="A25" t="inlineStr">
         <is>
           <t>David Gootzit</t>
@@ -2708,7 +2688,7 @@
         </is>
       </c>
       <c r="E25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F25" t="s">
         <v>1</v>
@@ -2719,7 +2699,7 @@
         </is>
       </c>
       <c r="H25" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I25" t="s">
         <v>3</v>
@@ -2732,10 +2712,8 @@
       <c r="K25" t="s">
         <v>4</v>
       </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>One.</t>
-        </is>
+      <c r="L25" s="2">
+        <v>1</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2743,7 +2721,7 @@
         </is>
       </c>
       <c r="N25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2751,7 +2729,7 @@
         </is>
       </c>
       <c r="P25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2764,23 +2742,23 @@
         </is>
       </c>
       <c r="S25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="T25" t="s">
+        <v>8</v>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>I want the hike the length of the route of the historical Hadrian's Wall in the United Kingdom.</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>My sons and I have won the neighborhood chili contest three years in a row. </t>
+        </is>
+      </c>
+      <c r="W25" t="s">
         <v>9</v>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>I want the hike the length of the route of the historical Hadrian's Wall in the United Kingdom.</t>
-        </is>
-      </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>My sons and I have won the neighborhood chili contest three years in a row. </t>
-        </is>
-      </c>
-      <c r="W25" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2805,10 +2783,10 @@
         </is>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2816,10 +2794,10 @@
         </is>
       </c>
       <c r="H26" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I26" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2829,8 +2807,8 @@
       <c r="K26" t="s">
         <v>4</v>
       </c>
-      <c r="L26" t="s">
-        <v>22</v>
+      <c r="L26" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2838,7 +2816,7 @@
         </is>
       </c>
       <c r="N26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2846,7 +2824,7 @@
         </is>
       </c>
       <c r="P26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2864,23 +2842,23 @@
         </is>
       </c>
       <c r="T26" t="s">
+        <v>8</v>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Travel </t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>I grew up on an island in the Caribbean.</t>
+        </is>
+      </c>
+      <c r="W26" t="s">
         <v>9</v>
       </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>Travel </t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>I grew up on an island in the Caribbean.</t>
-        </is>
-      </c>
-      <c r="W26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23">
+    </row>
+    <row r="27" spans="1:23" ht="16.5">
       <c r="A27" t="inlineStr">
         <is>
           <t>George Bassut</t>
@@ -2915,7 +2893,7 @@
         </is>
       </c>
       <c r="H27" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I27" t="s">
         <v>3</v>
@@ -2926,12 +2904,10 @@
         </is>
       </c>
       <c r="K27" t="s">
-        <v>13</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>Can we start with 2 and go from there? </t>
-        </is>
+        <v>12</v>
+      </c>
+      <c r="L27" s="2">
+        <v>2</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2939,7 +2915,7 @@
         </is>
       </c>
       <c r="N27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2947,7 +2923,7 @@
         </is>
       </c>
       <c r="P27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2965,7 +2941,7 @@
         </is>
       </c>
       <c r="T27" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
@@ -2978,7 +2954,7 @@
         </is>
       </c>
       <c r="W27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -3014,25 +2990,25 @@
         </is>
       </c>
       <c r="H28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I28" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J28" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K28" t="s">
         <v>4</v>
       </c>
-      <c r="L28" t="s">
-        <v>32</v>
+      <c r="L28" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="M28" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="N28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3040,7 +3016,7 @@
         </is>
       </c>
       <c r="P28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -3058,23 +3034,23 @@
         </is>
       </c>
       <c r="T28" t="s">
+        <v>8</v>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Take my wife to Naples, Italy to connect with her relatives! </t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>I am a very, very big University of Alabama Crimson Tide Fan! (Born and raised in Phenix City!)</t>
+        </is>
+      </c>
+      <c r="W28" t="s">
         <v>9</v>
       </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>Take my wife to Naples, Italy to connect with her relatives! </t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>I am a very, very big University of Alabama Crimson Tide Fan! (Born and raised in Phenix City!)</t>
-        </is>
-      </c>
-      <c r="W28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23">
+    </row>
+    <row r="29" spans="1:23" ht="16.5">
       <c r="A29" t="inlineStr">
         <is>
           <t>Lesley Gray </t>
@@ -3096,13 +3072,13 @@
         </is>
       </c>
       <c r="E29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -3118,12 +3094,10 @@
         </is>
       </c>
       <c r="K29" t="s">
-        <v>13</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>currently 1</t>
-        </is>
+        <v>12</v>
+      </c>
+      <c r="L29" s="2">
+        <v>1</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -3131,16 +3105,16 @@
         </is>
       </c>
       <c r="N29" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>I have myself benefitted from both informal and formal mentoring relationships throughout my career and know what value it can bring for both parties. I've previously had mentoring roles within the organisation and externally to our business. While I can offer experience to a mentee I also recognise that mentoring is two-way and is as much about listening and learning from the mentee for us both to get best value from the relationship.  </t>
+        </is>
+      </c>
+      <c r="P29" t="s">
         <v>6</v>
       </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>I have myself benefitted from both informal and formal mentoring relationships throughout my career and know what value it can bring for both parties. I've previously had mentoring roles within the organisation and externally to our business. While I can offer experience to a mentee I also recognise that mentoring is two-way and is as much about listening and learning from the mentee for us both to get best value from the relationship.  </t>
-        </is>
-      </c>
-      <c r="P29" t="s">
-        <v>7</v>
-      </c>
       <c r="Q29" t="inlineStr">
         <is>
           <t>Paddleboarding</t>
@@ -3157,20 +3131,20 @@
         </is>
       </c>
       <c r="T29" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Visit Japan</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>I've sung at the Liverpool Philharmonic Concert Hall</t>
+        </is>
+      </c>
+      <c r="W29" t="s">
         <v>9</v>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>Visit Japan</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>I've sung at the Liverpool Philharmonic Concert Hall</t>
-        </is>
-      </c>
-      <c r="W29" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -3195,10 +3169,10 @@
         </is>
       </c>
       <c r="E30" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -3206,10 +3180,10 @@
         </is>
       </c>
       <c r="H30" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I30" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -3217,10 +3191,10 @@
         </is>
       </c>
       <c r="K30" t="s">
-        <v>66</v>
-      </c>
-      <c r="L30" t="s">
-        <v>32</v>
+        <v>62</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -3228,7 +3202,7 @@
         </is>
       </c>
       <c r="N30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3236,7 +3210,7 @@
         </is>
       </c>
       <c r="P30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -3244,7 +3218,7 @@
         </is>
       </c>
       <c r="R30" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3252,20 +3226,20 @@
         </is>
       </c>
       <c r="T30" t="s">
+        <v>8</v>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Visiting the Maldives </t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>I enjoy real estate to the point that I visit open houses just to check out the quality and options of new developments. </t>
+        </is>
+      </c>
+      <c r="W30" t="s">
         <v>9</v>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>Visiting the Maldives </t>
-        </is>
-      </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>I enjoy real estate to the point that I visit open houses just to check out the quality and options of new developments. </t>
-        </is>
-      </c>
-      <c r="W30" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -3285,59 +3259,59 @@
         </is>
       </c>
       <c r="D31" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Diplomacy &amp; International Development</t>
+        </is>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Rachael Beitler</t>
+        </is>
+      </c>
+      <c r="H31" t="s">
+        <v>52</v>
+      </c>
+      <c r="I31" t="s">
+        <v>39</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Global Perspective - Understanding of global markets and trends, as well as experience in working in diverse and international environments.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;</t>
+        </is>
+      </c>
+      <c r="K31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31" t="s">
         <v>63</v>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Diplomacy &amp; International Development</t>
-        </is>
-      </c>
-      <c r="F31" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Rachael Beitler</t>
-        </is>
-      </c>
-      <c r="H31" t="s">
-        <v>56</v>
-      </c>
-      <c r="I31" t="s">
-        <v>42</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Global Perspective - Understanding of global markets and trends, as well as experience in working in diverse and international environments.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;</t>
-        </is>
-      </c>
-      <c r="K31" t="s">
-        <v>13</v>
-      </c>
-      <c r="L31" t="s">
-        <v>22</v>
-      </c>
-      <c r="M31" t="s">
-        <v>67</v>
-      </c>
       <c r="N31" t="s">
+        <v>5</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>I have done it before (PAE) and enjoyed the experience of giving back</t>
+        </is>
+      </c>
+      <c r="P31" t="s">
         <v>6</v>
       </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>I have done it before (PAE) and enjoyed the experience of giving back</t>
-        </is>
-      </c>
-      <c r="P31" t="s">
-        <v>7</v>
-      </c>
       <c r="Q31" t="inlineStr">
         <is>
           <t>exercise (climbing, yoga) and time in nature</t>
         </is>
       </c>
       <c r="R31" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3345,7 +3319,7 @@
         </is>
       </c>
       <c r="T31" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
@@ -3358,7 +3332,7 @@
         </is>
       </c>
       <c r="W31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -3396,7 +3370,7 @@
         </is>
       </c>
       <c r="H32" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I32" t="s">
         <v>3</v>
@@ -3409,23 +3383,23 @@
       <c r="K32" t="s">
         <v>4</v>
       </c>
-      <c r="L32" t="s">
-        <v>32</v>
+      <c r="L32" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="M32" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="N32" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>I participated in the last program and really enjoyed it, felt like I made a difference</t>
+        </is>
+      </c>
+      <c r="P32" t="s">
         <v>6</v>
       </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>I participated in the last program and really enjoyed it, felt like I made a difference</t>
-        </is>
-      </c>
-      <c r="P32" t="s">
-        <v>7</v>
-      </c>
       <c r="Q32" t="inlineStr">
         <is>
           <t>Reading, Walking, Volunteering </t>
@@ -3442,7 +3416,7 @@
         </is>
       </c>
       <c r="T32" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
@@ -3455,7 +3429,7 @@
         </is>
       </c>
       <c r="W32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -3475,95 +3449,95 @@
         </is>
       </c>
       <c r="D33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" t="s">
+        <v>65</v>
+      </c>
+      <c r="I33" t="s">
+        <v>28</v>
+      </c>
+      <c r="J33" t="s">
+        <v>66</v>
+      </c>
+      <c r="K33" t="s">
         <v>12</v>
       </c>
-      <c r="G33" t="s">
+      <c r="L33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M33" t="s">
+        <v>64</v>
+      </c>
+      <c r="N33" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>I enjoy helping people achieve.  I have mentored several people in the past and am currently mentoring a couple of people.  Its very rewarding personally.</t>
+        </is>
+      </c>
+      <c r="P33" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>51</v>
+      </c>
+      <c r="R33" t="s">
         <v>30</v>
       </c>
-      <c r="H33" t="s">
-        <v>69</v>
-      </c>
-      <c r="I33" t="s">
-        <v>31</v>
-      </c>
-      <c r="J33" t="s">
-        <v>70</v>
-      </c>
-      <c r="K33" t="s">
-        <v>13</v>
-      </c>
-      <c r="L33" t="s">
-        <v>22</v>
-      </c>
-      <c r="M33" t="s">
+      <c r="S33" t="s">
+        <v>67</v>
+      </c>
+      <c r="T33" t="s">
+        <v>8</v>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Play Golf at St Andrews</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>I had the pleasure of commanding the military flagbearing contingent at the Rugby World Cup at Twickenham in 2015.  Great experience to right on the pitch with 78000 people roaring as the Red Arrows flew overhead moments before the Wallabies and the All Blacks set about each other!</t>
+        </is>
+      </c>
+      <c r="W33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="16.5">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Shakira (Kira) Sanders</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>866222</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>kira.sanders@amentum.com</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Manager of Design Projects</t>
+        </is>
+      </c>
+      <c r="E34" t="s">
         <v>68</v>
-      </c>
-      <c r="N33" t="s">
-        <v>6</v>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>I enjoy helping people achieve.  I have mentored several people in the past and am currently mentoring a couple of people.  Its very rewarding personally.</t>
-        </is>
-      </c>
-      <c r="P33" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>55</v>
-      </c>
-      <c r="R33" t="s">
-        <v>33</v>
-      </c>
-      <c r="S33" t="s">
-        <v>71</v>
-      </c>
-      <c r="T33" t="s">
-        <v>9</v>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>Play Golf at St Andrews</t>
-        </is>
-      </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>I had the pleasure of commanding the military flagbearing contingent at the Rugby World Cup at Twickenham in 2015.  Great experience to right on the pitch with 78000 people roaring as the Red Arrows flew overhead moments before the Wallabies and the All Blacks set about each other!</t>
-        </is>
-      </c>
-      <c r="W33" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Shakira (Kira) Sanders</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>866222</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>kira.sanders@amentum.com</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Manager of Design Projects</t>
-        </is>
-      </c>
-      <c r="E34" t="s">
-        <v>72</v>
       </c>
       <c r="F34" t="s">
         <v>1</v>
@@ -3589,10 +3563,8 @@
       <c r="K34" t="s">
         <v>4</v>
       </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>Given my current commitments, I would like to start with one mentee.</t>
-        </is>
+      <c r="L34" s="2">
+        <v>1</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3600,16 +3572,16 @@
         </is>
       </c>
       <c r="N34" t="s">
+        <v>5</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>I've been fortunate to have many mentors (both formally and informally) during my career and would be honored to share that with others.</t>
+        </is>
+      </c>
+      <c r="P34" t="s">
         <v>6</v>
       </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>I've been fortunate to have many mentors (both formally and informally) during my career and would be honored to share that with others.</t>
-        </is>
-      </c>
-      <c r="P34" t="s">
-        <v>7</v>
-      </c>
       <c r="Q34" t="inlineStr">
         <is>
           <t>I don't have much time for hobbies, but any opportunity to get outside and power walk, I thoroughly enjoy.</t>
@@ -3626,20 +3598,20 @@
         </is>
       </c>
       <c r="T34" t="s">
+        <v>8</v>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Learn to play the cello.  </t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>I'm a huge 80's music and movie fan.  </t>
+        </is>
+      </c>
+      <c r="W34" t="s">
         <v>9</v>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>Learn to play the cello.  </t>
-        </is>
-      </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>I'm a huge 80's music and movie fan.  </t>
-        </is>
-      </c>
-      <c r="W34" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3667,37 +3639,37 @@
         <v>0</v>
       </c>
       <c r="F35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Daniel Ourada </t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Dubai, UAE</t>
+        </is>
+      </c>
+      <c r="I35" t="s">
+        <v>39</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;</t>
+        </is>
+      </c>
+      <c r="K35" t="s">
         <v>12</v>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Daniel Ourada </t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Dubai, UAE</t>
-        </is>
-      </c>
-      <c r="I35" t="s">
-        <v>42</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;</t>
-        </is>
-      </c>
-      <c r="K35" t="s">
-        <v>13</v>
-      </c>
-      <c r="L35" t="s">
-        <v>22</v>
+      <c r="L35" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="M35" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3705,7 +3677,7 @@
         </is>
       </c>
       <c r="P35" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3723,23 +3695,23 @@
         </is>
       </c>
       <c r="T35" t="s">
+        <v>8</v>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>sky diving</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="W35" t="s">
         <v>9</v>
       </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>sky diving</t>
-        </is>
-      </c>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="W35" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23">
+    </row>
+    <row r="36" spans="1:23" ht="16.5">
       <c r="A36" t="inlineStr">
         <is>
           <t>Kathryn Smith</t>
@@ -3761,13 +3733,13 @@
         </is>
       </c>
       <c r="E36" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G36" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -3783,27 +3755,25 @@
         </is>
       </c>
       <c r="K36" t="s">
+        <v>12</v>
+      </c>
+      <c r="L36" s="2">
+        <v>1</v>
+      </c>
+      <c r="M36" t="s">
         <v>13</v>
       </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>1, I already mentor 3 people</t>
-        </is>
-      </c>
-      <c r="M36" t="s">
-        <v>15</v>
-      </c>
       <c r="N36" t="s">
+        <v>5</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>I am passionate about developing people. I appreciate hearing the feedback and experiences from people different roles and widening my own network.</t>
+        </is>
+      </c>
+      <c r="P36" t="s">
         <v>6</v>
       </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>I am passionate about developing people. I appreciate hearing the feedback and experiences from people different roles and widening my own network.</t>
-        </is>
-      </c>
-      <c r="P36" t="s">
-        <v>7</v>
-      </c>
       <c r="Q36" t="inlineStr">
         <is>
           <t>Tennis</t>
@@ -3820,20 +3790,20 @@
         </is>
       </c>
       <c r="T36" t="s">
+        <v>8</v>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Travelling to amazing places I haven't been to yet</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Love playing tennis and having a good night out with all the lovely people I have got to know.</t>
+        </is>
+      </c>
+      <c r="W36" t="s">
         <v>9</v>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>Travelling to amazing places I haven't been to yet</t>
-        </is>
-      </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>Love playing tennis and having a good night out with all the lovely people I have got to know.</t>
-        </is>
-      </c>
-      <c r="W36" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3858,7 +3828,7 @@
         </is>
       </c>
       <c r="E37" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F37" t="s">
         <v>1</v>
@@ -3869,7 +3839,7 @@
         </is>
       </c>
       <c r="H37" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I37" t="s">
         <v>3</v>
@@ -3880,10 +3850,10 @@
         </is>
       </c>
       <c r="K37" t="s">
-        <v>13</v>
-      </c>
-      <c r="L37" t="s">
-        <v>32</v>
+        <v>12</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -3891,7 +3861,7 @@
         </is>
       </c>
       <c r="N37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3899,13 +3869,13 @@
         </is>
       </c>
       <c r="P37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="T37" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="W37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3930,40 +3900,40 @@
         </is>
       </c>
       <c r="E38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Duncan Steel</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>London GMT</t>
+        </is>
+      </c>
+      <c r="I38" t="s">
+        <v>69</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;</t>
+        </is>
+      </c>
+      <c r="K38" t="s">
         <v>12</v>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Duncan Steel</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>London GMT</t>
-        </is>
-      </c>
-      <c r="I38" t="s">
-        <v>73</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;</t>
-        </is>
-      </c>
-      <c r="K38" t="s">
+      <c r="L38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M38" t="s">
         <v>13</v>
       </c>
-      <c r="L38" t="s">
-        <v>32</v>
-      </c>
-      <c r="M38" t="s">
-        <v>15</v>
-      </c>
       <c r="N38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3971,7 +3941,7 @@
         </is>
       </c>
       <c r="P38" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3989,7 +3959,7 @@
         </is>
       </c>
       <c r="T38" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
@@ -4002,7 +3972,7 @@
         </is>
       </c>
       <c r="W38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -4027,10 +3997,10 @@
         </is>
       </c>
       <c r="E39" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -4038,10 +4008,10 @@
         </is>
       </c>
       <c r="H39" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I39" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -4051,30 +4021,30 @@
       <c r="K39" t="s">
         <v>4</v>
       </c>
-      <c r="L39" t="s">
-        <v>22</v>
+      <c r="L39" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="M39" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N39" t="s">
+        <v>5</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>I have provided mentorship in both my military and civilian career, and take great personal satisfaction from providing insight and advice to help mentees: navigate their career paths, learn new skills and improve existing ones, boost confidence and self-esteem, set realistic goals.</t>
+        </is>
+      </c>
+      <c r="P39" t="s">
         <v>6</v>
       </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>I have provided mentorship in both my military and civilian career, and take great personal satisfaction from providing insight and advice to help mentees: navigate their career paths, learn new skills and improve existing ones, boost confidence and self-esteem, set realistic goals.</t>
-        </is>
-      </c>
-      <c r="P39" t="s">
-        <v>7</v>
-      </c>
       <c r="Q39" t="inlineStr">
         <is>
           <t>Physical training</t>
         </is>
       </c>
       <c r="R39" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4082,20 +4052,20 @@
         </is>
       </c>
       <c r="T39" t="s">
+        <v>8</v>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Nirvana</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Accidentally set myself on fire while conducting a freefall parachute display!</t>
+        </is>
+      </c>
+      <c r="W39" t="s">
         <v>9</v>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>Nirvana</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>Accidentally set myself on fire while conducting a freefall parachute display!</t>
-        </is>
-      </c>
-      <c r="W39" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -4120,10 +4090,10 @@
         </is>
       </c>
       <c r="E40" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -4131,25 +4101,25 @@
         </is>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I40" t="s">
         <v>3</v>
       </c>
       <c r="J40" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K40" t="s">
+        <v>12</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M40" t="s">
         <v>13</v>
       </c>
-      <c r="L40" t="s">
-        <v>32</v>
-      </c>
-      <c r="M40" t="s">
-        <v>15</v>
-      </c>
       <c r="N40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4157,7 +4127,7 @@
         </is>
       </c>
       <c r="P40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -4175,7 +4145,7 @@
         </is>
       </c>
       <c r="T40" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
@@ -4188,10 +4158,10 @@
         </is>
       </c>
       <c r="W40" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="16.5">
       <c r="A41" t="inlineStr">
         <is>
           <t>Naomi McClain</t>
@@ -4218,29 +4188,29 @@
         </is>
       </c>
       <c r="F41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Steve Arnette</t>
+        </is>
+      </c>
+      <c r="H41" t="s">
+        <v>56</v>
+      </c>
+      <c r="I41" t="s">
+        <v>35</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;Global Perspective - Understanding of global markets and trends, as well as experience in working in diverse and international environments.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;</t>
+        </is>
+      </c>
+      <c r="K41" t="s">
         <v>12</v>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>Steve Arnette</t>
-        </is>
-      </c>
-      <c r="H41" t="s">
-        <v>60</v>
-      </c>
-      <c r="I41" t="s">
-        <v>38</v>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;Global Perspective - Understanding of global markets and trends, as well as experience in working in diverse and international environments.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;</t>
-        </is>
-      </c>
-      <c r="K41" t="s">
-        <v>13</v>
-      </c>
-      <c r="L41" t="s">
-        <v>27</v>
+      <c r="L41" s="2">
+        <v>2</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -4248,7 +4218,7 @@
         </is>
       </c>
       <c r="N41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4256,7 +4226,7 @@
         </is>
       </c>
       <c r="P41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -4274,20 +4244,20 @@
         </is>
       </c>
       <c r="T41" t="s">
+        <v>8</v>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Visit each continent or wonders of the world.</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>My 9-year-old read this question and said a fun fact about me is that I "love to sing and dance and have fun."  My response would be that life is short and we were meant to live an abundant life!</t>
+        </is>
+      </c>
+      <c r="W41" t="s">
         <v>9</v>
-      </c>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>Visit each continent or wonders of the world.</t>
-        </is>
-      </c>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>My 9-year-old read this question and said a fun fact about me is that I "love to sing and dance and have fun."  My response would be that life is short and we were meant to live an abundant life!</t>
-        </is>
-      </c>
-      <c r="W41" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -4312,201 +4282,199 @@
         </is>
       </c>
       <c r="E42" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" t="s">
+        <v>42</v>
+      </c>
+      <c r="H42" t="s">
+        <v>52</v>
+      </c>
+      <c r="I42" t="s">
+        <v>28</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;</t>
+        </is>
+      </c>
+      <c r="K42" t="s">
         <v>12</v>
       </c>
-      <c r="G42" t="s">
-        <v>45</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="L42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Amentum Black Excellence Network;Amentum Women Network;NextGen Network;Veteran and Military Supporters Network;</t>
+        </is>
+      </c>
+      <c r="N42" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Because I need to "pay it forward"</t>
+        </is>
+      </c>
+      <c r="P42" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>57</v>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Animated </t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Professional and Spiritual Development</t>
+        </is>
+      </c>
+      <c r="T42" t="s">
+        <v>8</v>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Travel to Asia</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>I love Pixar movies. </t>
+        </is>
+      </c>
+      <c r="W42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="16.5">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Alan Bloodworth</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000265615</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>alan.bloodworth@global.amentum.com</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Technical Director</t>
+        </is>
+      </c>
+      <c r="E43" t="s">
+        <v>68</v>
+      </c>
+      <c r="F43" t="s">
+        <v>48</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Steven Boyd</t>
+        </is>
+      </c>
+      <c r="H43" t="s">
+        <v>65</v>
+      </c>
+      <c r="I43" t="s">
+        <v>69</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;</t>
+        </is>
+      </c>
+      <c r="K43" t="s">
+        <v>62</v>
+      </c>
+      <c r="L43" s="2">
+        <v>2</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>LGBTQIA+ Network;</t>
+        </is>
+      </c>
+      <c r="N43" t="s">
+        <v>5</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>I understand the importance of professional development, and from my own experience I can say that I have learnt the most and developed the confidence to make changes in my life and career when I have had the opportunity to talk over where I am in my career and my next steps with a professional colleague, friend or informal mentor. I hope to be able to 'return the favour' and help a more junior colleague here at Amentum to understand their own strengths and weaknesses and create their own action plan for their next steps. </t>
+        </is>
+      </c>
+      <c r="P43" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>Movies, history/archaeology, travel, cycling</t>
+        </is>
+      </c>
+      <c r="R43" t="s">
+        <v>60</v>
+      </c>
+      <c r="S43" t="s">
+        <v>67</v>
+      </c>
+      <c r="T43" t="s">
+        <v>25</v>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Go on proper whale watching, see whales underwater</t>
+        </is>
+      </c>
+      <c r="W43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="16.5">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Jim Sands</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>529727</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>james.sands@amentum.com</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>VP, Operations</t>
+        </is>
+      </c>
+      <c r="E44" t="s">
+        <v>55</v>
+      </c>
+      <c r="F44" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Rob Tillery</t>
+        </is>
+      </c>
+      <c r="H44" t="s">
         <v>56</v>
-      </c>
-      <c r="I42" t="s">
-        <v>31</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;</t>
-        </is>
-      </c>
-      <c r="K42" t="s">
-        <v>13</v>
-      </c>
-      <c r="L42" t="s">
-        <v>22</v>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>Amentum Black Excellence Network;Amentum Women Network;NextGen Network;Veteran and Military Supporters Network;</t>
-        </is>
-      </c>
-      <c r="N42" t="s">
-        <v>6</v>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>Because I need to "pay it forward"</t>
-        </is>
-      </c>
-      <c r="P42" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>61</v>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>Animated </t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>Professional and Spiritual Development</t>
-        </is>
-      </c>
-      <c r="T42" t="s">
-        <v>9</v>
-      </c>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>Travel to Asia</t>
-        </is>
-      </c>
-      <c r="V42" t="inlineStr">
-        <is>
-          <t>I love Pixar movies. </t>
-        </is>
-      </c>
-      <c r="W42" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Alan Bloodworth</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>000265615</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>alan.bloodworth@global.amentum.com</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Technical Director</t>
-        </is>
-      </c>
-      <c r="E43" t="s">
-        <v>72</v>
-      </c>
-      <c r="F43" t="s">
-        <v>52</v>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Steven Boyd</t>
-        </is>
-      </c>
-      <c r="H43" t="s">
-        <v>69</v>
-      </c>
-      <c r="I43" t="s">
-        <v>73</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;</t>
-        </is>
-      </c>
-      <c r="K43" t="s">
-        <v>66</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>Not sure, maybe 2</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>LGBTQIA+ Network;</t>
-        </is>
-      </c>
-      <c r="N43" t="s">
-        <v>6</v>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>I understand the importance of professional development, and from my own experience I can say that I have learnt the most and developed the confidence to make changes in my life and career when I have had the opportunity to talk over where I am in my career and my next steps with a professional colleague, friend or informal mentor. I hope to be able to 'return the favour' and help a more junior colleague here at Amentum to understand their own strengths and weaknesses and create their own action plan for their next steps. </t>
-        </is>
-      </c>
-      <c r="P43" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>Movies, history/archaeology, travel, cycling</t>
-        </is>
-      </c>
-      <c r="R43" t="s">
-        <v>64</v>
-      </c>
-      <c r="S43" t="s">
-        <v>71</v>
-      </c>
-      <c r="T43" t="s">
-        <v>28</v>
-      </c>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>Go on proper whale watching, see whales underwater</t>
-        </is>
-      </c>
-      <c r="W43" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Jim Sands</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>529727</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>james.sands@amentum.com</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>VP, Operations</t>
-        </is>
-      </c>
-      <c r="E44" t="s">
-        <v>59</v>
-      </c>
-      <c r="F44" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Rob Tillery</t>
-        </is>
-      </c>
-      <c r="H44" t="s">
-        <v>60</v>
       </c>
       <c r="I44" t="s">
         <v>3</v>
@@ -4517,12 +4485,10 @@
         </is>
       </c>
       <c r="K44" t="s">
-        <v>75</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>Two initially, call me if there is a need for more</t>
-        </is>
+        <v>71</v>
+      </c>
+      <c r="L44" s="2">
+        <v>2</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -4530,47 +4496,47 @@
         </is>
       </c>
       <c r="N44" t="s">
+        <v>5</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>The answer from Q16 is speed mentoring as part of WISE, which I enjoyed. Willing to give back based on the leaders that have invested in me (outside of a formal mentoring program.)</t>
+        </is>
+      </c>
+      <c r="P44" t="s">
         <v>6</v>
       </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>The answer from Q16 is speed mentoring as part of WISE, which I enjoyed. Willing to give back based on the leaders that have invested in me (outside of a formal mentoring program.)</t>
-        </is>
-      </c>
-      <c r="P44" t="s">
-        <v>7</v>
-      </c>
       <c r="Q44" t="inlineStr">
         <is>
           <t>Weightlifting</t>
         </is>
       </c>
       <c r="R44" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="S44" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="T44" t="s">
+        <v>8</v>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Northern Lights</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Six kids, 5 done with college :)</t>
+        </is>
+      </c>
+      <c r="W44" t="s">
         <v>9</v>
-      </c>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>Northern Lights</t>
-        </is>
-      </c>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>Six kids, 5 done with college :)</t>
-        </is>
-      </c>
-      <c r="W44" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:23">
       <c r="A45" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -4593,10 +4559,10 @@
         </is>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G45" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -4607,13 +4573,13 @@
         <v>3</v>
       </c>
       <c r="J45" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K45" t="s">
-        <v>13</v>
-      </c>
-      <c r="L45" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -4621,29 +4587,29 @@
         </is>
       </c>
       <c r="N45" t="s">
+        <v>5</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>I really believe in the importance of talent development and so am always happy to support - noting that I do already have a number of mentees</t>
+        </is>
+      </c>
+      <c r="P45" t="s">
         <v>6</v>
       </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>I really believe in the importance of talent development and so am always happy to support - noting that I do already have a number of mentees</t>
-        </is>
-      </c>
-      <c r="P45" t="s">
-        <v>7</v>
-      </c>
       <c r="Q45" t="inlineStr">
         <is>
           <t>Building Lego, reading and watching rugby</t>
         </is>
       </c>
       <c r="R45" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="S45" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="T45" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
@@ -4656,7 +4622,7 @@
         </is>
       </c>
       <c r="W45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -4681,75 +4647,75 @@
         </is>
       </c>
       <c r="E46" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F46" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>John Pelton</t>
+        </is>
+      </c>
+      <c r="H46" t="s">
+        <v>65</v>
+      </c>
+      <c r="I46" t="s">
+        <v>53</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;Global Perspective - Understanding of global markets and trends, as well as experience in working in diverse and international environments.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;</t>
+        </is>
+      </c>
+      <c r="K46" t="s">
         <v>12</v>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>John Pelton</t>
-        </is>
-      </c>
-      <c r="H46" t="s">
-        <v>69</v>
-      </c>
-      <c r="I46" t="s">
-        <v>57</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;Global Perspective - Understanding of global markets and trends, as well as experience in working in diverse and international environments.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;</t>
-        </is>
-      </c>
-      <c r="K46" t="s">
-        <v>13</v>
-      </c>
-      <c r="L46" t="s">
-        <v>32</v>
+      <c r="L46" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="M46" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N46" t="s">
+        <v>6</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>I want to make a meaningful impact on someone's life by helping them grow professionally. It is a rewarding thing to do because whilst it helps others to succeed, it also strengthens my own leadership and communication skills, contributes to continuous learning, expands networks and leaves a legacy.</t>
+        </is>
+      </c>
+      <c r="P46" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>Hiking in beautiful countryside</t>
+        </is>
+      </c>
+      <c r="R46" t="s">
         <v>7</v>
       </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>I want to make a meaningful impact on someone's life by helping them grow professionally. It is a rewarding thing to do because whilst it helps others to succeed, it also strengthens my own leadership and communication skills, contributes to continuous learning, expands networks and leaves a legacy.</t>
-        </is>
-      </c>
-      <c r="P46" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>Hiking in beautiful countryside</t>
-        </is>
-      </c>
-      <c r="R46" t="s">
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Fiction or history</t>
+        </is>
+      </c>
+      <c r="T46" t="s">
         <v>8</v>
       </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>Fiction or history</t>
-        </is>
-      </c>
-      <c r="T46" t="s">
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>More travel!</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>I have climbed Kilimanjaro and also swam with a whale shark in the Maldives</t>
+        </is>
+      </c>
+      <c r="W46" t="s">
         <v>9</v>
-      </c>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>More travel!</t>
-        </is>
-      </c>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>I have climbed Kilimanjaro and also swam with a whale shark in the Maldives</t>
-        </is>
-      </c>
-      <c r="W46" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -4774,16 +4740,16 @@
         </is>
       </c>
       <c r="E47" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G47" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H47" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I47" t="s">
         <v>3</v>
@@ -4794,26 +4760,26 @@
         </is>
       </c>
       <c r="K47" t="s">
-        <v>13</v>
-      </c>
-      <c r="L47" t="s">
+        <v>12</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Abled/Neurodiverse Network;Amentum Women Network;Veteran and Military Supporters Network;</t>
+        </is>
+      </c>
+      <c r="N47" t="s">
         <v>5</v>
       </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>Abled/Neurodiverse Network;Amentum Women Network;Veteran and Military Supporters Network;</t>
-        </is>
-      </c>
-      <c r="N47" t="s">
-        <v>6</v>
-      </c>
       <c r="O47" t="inlineStr">
         <is>
           <t>I enjoying mentoring and will gain as much from the programme as the mentee from a shared learning perspective.</t>
         </is>
       </c>
       <c r="P47" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4821,7 +4787,7 @@
         </is>
       </c>
       <c r="R47" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4829,23 +4795,23 @@
         </is>
       </c>
       <c r="T47" t="s">
+        <v>8</v>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>to play a round at Augusta with my son</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>I answer to 2 different names, depending on when you knew me...</t>
+        </is>
+      </c>
+      <c r="W47" t="s">
         <v>9</v>
       </c>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>to play a round at Augusta with my son</t>
-        </is>
-      </c>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>I answer to 2 different names, depending on when you knew me...</t>
-        </is>
-      </c>
-      <c r="W47" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23">
+    </row>
+    <row r="48" spans="1:23" ht="16.5">
       <c r="A48" t="inlineStr">
         <is>
           <t>Lori Jones</t>
@@ -4862,13 +4828,13 @@
         </is>
       </c>
       <c r="D48" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E48" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F48" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -4876,7 +4842,7 @@
         </is>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I48" t="s">
         <v>3</v>
@@ -4889,16 +4855,14 @@
       <c r="K48" t="s">
         <v>4</v>
       </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>1-3</t>
-        </is>
+      <c r="L48" s="2">
+        <v>3</v>
       </c>
       <c r="M48" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4906,7 +4870,7 @@
         </is>
       </c>
       <c r="P48" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4924,23 +4888,23 @@
         </is>
       </c>
       <c r="T48" t="s">
+        <v>8</v>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Travel to Italy</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>I used to be a regular Karaoke participant. </t>
+        </is>
+      </c>
+      <c r="W48" t="s">
         <v>9</v>
       </c>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>Travel to Italy</t>
-        </is>
-      </c>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>I used to be a regular Karaoke participant. </t>
-        </is>
-      </c>
-      <c r="W48" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23">
+    </row>
+    <row r="49" spans="1:23" ht="16.5">
       <c r="A49" t="inlineStr">
         <is>
           <t>Ken Ankrom</t>
@@ -4962,10 +4926,10 @@
         </is>
       </c>
       <c r="E49" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -4988,23 +4952,23 @@
       <c r="K49" t="s">
         <v>4</v>
       </c>
-      <c r="L49" t="s">
-        <v>79</v>
+      <c r="L49" s="2">
+        <v>2</v>
       </c>
       <c r="M49" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N49" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>I've had the opportunity to mentor employees in the past.  The experience provides me with continued growth opportunities.  Interpersonal skills, social skills, strategic thinking, etc. all require routine exercises, or you lose the ability to maintain an edge as a leader.</t>
+        </is>
+      </c>
+      <c r="P49" t="s">
         <v>6</v>
       </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>I've had the opportunity to mentor employees in the past.  The experience provides me with continued growth opportunities.  Interpersonal skills, social skills, strategic thinking, etc. all require routine exercises, or you lose the ability to maintain an edge as a leader.</t>
-        </is>
-      </c>
-      <c r="P49" t="s">
-        <v>7</v>
-      </c>
       <c r="Q49" t="inlineStr">
         <is>
           <t>Truck restoration.  I am currently working a 1955 Chevy.  Any type of equipment repair / restoration.  </t>
@@ -5016,7 +4980,7 @@
         </is>
       </c>
       <c r="T49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
@@ -5031,7 +4995,7 @@
         </is>
       </c>
       <c r="W49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -5056,40 +5020,40 @@
         </is>
       </c>
       <c r="E50" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F50" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>David Livesey</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>GMT (UK) but may become UTC+3 when delivering a project in Riyadh</t>
+        </is>
+      </c>
+      <c r="I50" t="s">
+        <v>53</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;Global Perspective - Understanding of global markets and trends, as well as experience in working in diverse and international environments.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;</t>
+        </is>
+      </c>
+      <c r="K50" t="s">
         <v>12</v>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>David Livesey</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>GMT (UK) but may become UTC+3 when delivering a project in Riyadh</t>
-        </is>
-      </c>
-      <c r="I50" t="s">
-        <v>57</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;Global Perspective - Understanding of global markets and trends, as well as experience in working in diverse and international environments.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;</t>
-        </is>
-      </c>
-      <c r="K50" t="s">
-        <v>13</v>
-      </c>
-      <c r="L50" t="s">
-        <v>32</v>
+      <c r="L50" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="M50" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5097,7 +5061,7 @@
         </is>
       </c>
       <c r="P50" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -5115,7 +5079,7 @@
         </is>
       </c>
       <c r="T50" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
@@ -5128,10 +5092,10 @@
         </is>
       </c>
       <c r="W50" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" ht="16.5">
       <c r="A51" t="inlineStr">
         <is>
           <t>Veronica Fitzjarrald</t>
@@ -5153,10 +5117,10 @@
         </is>
       </c>
       <c r="E51" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -5164,7 +5128,7 @@
         </is>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I51" t="s">
         <v>3</v>
@@ -5177,8 +5141,8 @@
       <c r="K51" t="s">
         <v>4</v>
       </c>
-      <c r="L51" t="s">
-        <v>81</v>
+      <c r="L51" s="2">
+        <v>1</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -5186,16 +5150,16 @@
         </is>
       </c>
       <c r="N51" t="s">
+        <v>5</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>To help others grow their career within Amentum as I have.</t>
+        </is>
+      </c>
+      <c r="P51" t="s">
         <v>6</v>
       </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>To help others grow their career within Amentum as I have.</t>
-        </is>
-      </c>
-      <c r="P51" t="s">
-        <v>7</v>
-      </c>
       <c r="Q51" t="inlineStr">
         <is>
           <t>Reading</t>
@@ -5212,25 +5176,25 @@
         </is>
       </c>
       <c r="T51" t="s">
+        <v>8</v>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>Visit New Zealand</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>I could probably open a nail salon with all the nail polishes that I have (and I even know the names of all the nail polish colors).</t>
+        </is>
+      </c>
+      <c r="W51" t="s">
         <v>9</v>
-      </c>
-      <c r="U51" t="inlineStr">
-        <is>
-          <t>Visit New Zealand</t>
-        </is>
-      </c>
-      <c r="V51" t="inlineStr">
-        <is>
-          <t>I could probably open a nail salon with all the nail polishes that I have (and I even know the names of all the nail polish colors).</t>
-        </is>
-      </c>
-      <c r="W51" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:23">
       <c r="A52" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -5248,65 +5212,65 @@
         </is>
       </c>
       <c r="E52" t="s">
+        <v>23</v>
+      </c>
+      <c r="F52" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" t="s">
+        <v>78</v>
+      </c>
+      <c r="H52" t="s">
+        <v>52</v>
+      </c>
+      <c r="I52" t="s">
+        <v>39</v>
+      </c>
+      <c r="J52" t="s">
+        <v>73</v>
+      </c>
+      <c r="K52" t="s">
+        <v>12</v>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>Amentum Black Excellence Network;Amentum Women Network;Careers Network;NextGen Network;Veteran and Military Supporters Network;</t>
+        </is>
+      </c>
+      <c r="N52" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>I believe mentoring is a wonderful opportunity to support others as they plan and navigate their career paths. Having benefited from amazing mentors myself, I see it as my chance to pay it forward.</t>
+        </is>
+      </c>
+      <c r="P52" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>serving the community, staying current on latest tech, travel, family time</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>science fiction</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
+      <c r="T52" t="s">
         <v>25</v>
       </c>
-      <c r="F52" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" t="s">
-        <v>83</v>
-      </c>
-      <c r="H52" t="s">
-        <v>56</v>
-      </c>
-      <c r="I52" t="s">
-        <v>42</v>
-      </c>
-      <c r="J52" t="s">
-        <v>77</v>
-      </c>
-      <c r="K52" t="s">
-        <v>13</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>Amentum Black Excellence Network;Amentum Women Network;Careers Network;NextGen Network;Veteran and Military Supporters Network;</t>
-        </is>
-      </c>
-      <c r="N52" t="s">
-        <v>6</v>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>I believe mentoring is a wonderful opportunity to support others as they plan and navigate their career paths. Having benefited from amazing mentors myself, I see it as my chance to pay it forward.</t>
-        </is>
-      </c>
-      <c r="P52" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>serving the community, staying current on latest tech, travel, family time</t>
-        </is>
-      </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>science fiction</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>food</t>
-        </is>
-      </c>
-      <c r="T52" t="s">
-        <v>28</v>
-      </c>
       <c r="U52" t="inlineStr">
         <is>
           <t>create a game changing technology</t>
@@ -5318,10 +5282,10 @@
         </is>
       </c>
       <c r="W52" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" ht="16.5">
       <c r="A53" t="inlineStr">
         <is>
           <t>Kim Chester</t>
@@ -5343,28 +5307,28 @@
         </is>
       </c>
       <c r="E53" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G53" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H53" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I53" t="s">
         <v>3</v>
       </c>
       <c r="J53" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K53" t="s">
-        <v>13</v>
-      </c>
-      <c r="L53" t="s">
-        <v>79</v>
+        <v>12</v>
+      </c>
+      <c r="L53" s="2">
+        <v>2</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -5372,16 +5336,16 @@
         </is>
       </c>
       <c r="N53" t="s">
+        <v>5</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>It benefits me as much as those I mentor.  It's fun!  It helps me understand how the world of work is experienced by others which in turn helps me be a better leader and manager.</t>
+        </is>
+      </c>
+      <c r="P53" t="s">
         <v>6</v>
       </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>It benefits me as much as those I mentor.  It's fun!  It helps me understand how the world of work is experienced by others which in turn helps me be a better leader and manager.</t>
-        </is>
-      </c>
-      <c r="P53" t="s">
-        <v>7</v>
-      </c>
       <c r="Q53" t="inlineStr">
         <is>
           <t>Mountain walking</t>
@@ -5398,20 +5362,20 @@
         </is>
       </c>
       <c r="T53" t="s">
+        <v>8</v>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>Travel to India</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>My PM career started by working in landmine clearance in Angola</t>
+        </is>
+      </c>
+      <c r="W53" t="s">
         <v>9</v>
-      </c>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>Travel to India</t>
-        </is>
-      </c>
-      <c r="V53" t="inlineStr">
-        <is>
-          <t>My PM career started by working in landmine clearance in Angola</t>
-        </is>
-      </c>
-      <c r="W53" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -5441,27 +5405,27 @@
         </is>
       </c>
       <c r="F54" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" t="s">
+        <v>77</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>EST, east coast</t>
+        </is>
+      </c>
+      <c r="I54" t="s">
+        <v>39</v>
+      </c>
+      <c r="J54" t="s">
+        <v>66</v>
+      </c>
+      <c r="K54" t="s">
         <v>12</v>
       </c>
-      <c r="G54" t="s">
-        <v>82</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>EST, east coast</t>
-        </is>
-      </c>
-      <c r="I54" t="s">
-        <v>42</v>
-      </c>
-      <c r="J54" t="s">
-        <v>70</v>
-      </c>
-      <c r="K54" t="s">
-        <v>13</v>
-      </c>
-      <c r="L54" t="s">
-        <v>22</v>
+      <c r="L54" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -5469,23 +5433,23 @@
         </is>
       </c>
       <c r="N54" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Great opportunity to pass on 45 years of experience</t>
+        </is>
+      </c>
+      <c r="P54" t="s">
         <v>6</v>
       </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>Great opportunity to pass on 45 years of experience</t>
-        </is>
-      </c>
-      <c r="P54" t="s">
-        <v>7</v>
-      </c>
       <c r="Q54" t="inlineStr">
         <is>
           <t>spending with family</t>
         </is>
       </c>
       <c r="R54" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5493,23 +5457,23 @@
         </is>
       </c>
       <c r="T54" t="s">
+        <v>8</v>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>visit england and ireland</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>built the log home my wife and i live in</t>
+        </is>
+      </c>
+      <c r="W54" t="s">
         <v>9</v>
       </c>
-      <c r="U54" t="inlineStr">
-        <is>
-          <t>visit england and ireland</t>
-        </is>
-      </c>
-      <c r="V54" t="inlineStr">
-        <is>
-          <t>built the log home my wife and i live in</t>
-        </is>
-      </c>
-      <c r="W54" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23">
+    </row>
+    <row r="55" spans="1:23" ht="16.5">
       <c r="A55" t="inlineStr">
         <is>
           <t>Rob Smith</t>
@@ -5531,13 +5495,13 @@
         </is>
       </c>
       <c r="E55" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G55" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -5545,7 +5509,7 @@
         </is>
       </c>
       <c r="I55" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -5553,12 +5517,10 @@
         </is>
       </c>
       <c r="K55" t="s">
-        <v>21</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>I would like to stay with the 3 that I have C. Nixon, B. Comedy, and G. McKinney.  I can take on 2 more</t>
-        </is>
+        <v>19</v>
+      </c>
+      <c r="L55" s="2">
+        <v>2</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
@@ -5566,23 +5528,23 @@
         </is>
       </c>
       <c r="N55" t="s">
+        <v>5</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>I get a lot out of partnering with others in navigating their personal journeys.  I also feel that I grow as a mentor/coach when helping others.  </t>
+        </is>
+      </c>
+      <c r="P55" t="s">
         <v>6</v>
       </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>I get a lot out of partnering with others in navigating their personal journeys.  I also feel that I grow as a mentor/coach when helping others.  </t>
-        </is>
-      </c>
-      <c r="P55" t="s">
-        <v>7</v>
-      </c>
       <c r="Q55" t="inlineStr">
         <is>
           <t>Wood working</t>
         </is>
       </c>
       <c r="R55" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5590,7 +5552,7 @@
         </is>
       </c>
       <c r="T55" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
@@ -5603,7 +5565,7 @@
         </is>
       </c>
       <c r="W55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -5633,47 +5595,47 @@
         </is>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G56" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H56" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I56" t="s">
         <v>3</v>
       </c>
       <c r="J56" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K56" t="s">
         <v>4</v>
       </c>
-      <c r="L56" t="s">
-        <v>32</v>
+      <c r="L56" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="M56" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N56" t="s">
+        <v>5</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Love mentoring</t>
+        </is>
+      </c>
+      <c r="P56" t="s">
         <v>6</v>
       </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>Love mentoring</t>
-        </is>
-      </c>
-      <c r="P56" t="s">
-        <v>7</v>
-      </c>
       <c r="Q56" t="inlineStr">
         <is>
           <t>Flying</t>
         </is>
       </c>
       <c r="R56" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5681,7 +5643,7 @@
         </is>
       </c>
       <c r="T56" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
@@ -5694,10 +5656,10 @@
         </is>
       </c>
       <c r="W56" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" ht="16.5">
       <c r="A57" t="inlineStr">
         <is>
           <t>Larry Smerk</t>
@@ -5719,7 +5681,7 @@
         </is>
       </c>
       <c r="E57" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F57" t="s">
         <v>1</v>
@@ -5745,16 +5707,14 @@
       <c r="K57" t="s">
         <v>4</v>
       </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>One but could do two</t>
-        </is>
+      <c r="L57" s="2">
+        <v>2</v>
       </c>
       <c r="M57" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5762,7 +5722,7 @@
         </is>
       </c>
       <c r="P57" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -5770,7 +5730,7 @@
         </is>
       </c>
       <c r="R57" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5778,23 +5738,23 @@
         </is>
       </c>
       <c r="T57" t="s">
+        <v>8</v>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>Visit all 50 states.</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>Love multi day float canoe/camp trips.</t>
+        </is>
+      </c>
+      <c r="W57" t="s">
         <v>9</v>
       </c>
-      <c r="U57" t="inlineStr">
-        <is>
-          <t>Visit all 50 states.</t>
-        </is>
-      </c>
-      <c r="V57" t="inlineStr">
-        <is>
-          <t>Love multi day float canoe/camp trips.</t>
-        </is>
-      </c>
-      <c r="W57" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23">
+    </row>
+    <row r="58" spans="1:23" ht="16.5">
       <c r="A58" t="inlineStr">
         <is>
           <t>Bryan Roberts</t>
@@ -5819,7 +5779,7 @@
         <v>0</v>
       </c>
       <c r="F58" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -5827,10 +5787,10 @@
         </is>
       </c>
       <c r="H58" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I58" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -5838,16 +5798,16 @@
         </is>
       </c>
       <c r="K58" t="s">
-        <v>13</v>
-      </c>
-      <c r="L58" t="s">
-        <v>81</v>
+        <v>12</v>
+      </c>
+      <c r="L58" s="2">
+        <v>1</v>
       </c>
       <c r="M58" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="N58" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5855,7 +5815,7 @@
         </is>
       </c>
       <c r="P58" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5883,7 +5843,7 @@
         </is>
       </c>
       <c r="W58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -5911,7 +5871,7 @@
         <v>0</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -5924,7 +5884,7 @@
         </is>
       </c>
       <c r="I59" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -5934,14 +5894,14 @@
       <c r="K59" t="s">
         <v>4</v>
       </c>
-      <c r="L59" t="s">
-        <v>22</v>
+      <c r="L59" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="M59" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="N59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5949,7 +5909,7 @@
         </is>
       </c>
       <c r="P59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5962,23 +5922,23 @@
         </is>
       </c>
       <c r="S59" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="T59" t="s">
+        <v>8</v>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>Travel to Asia and the Middle East</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>I love to dance to all kinds of music but especially afrobeat. </t>
+        </is>
+      </c>
+      <c r="W59" t="s">
         <v>9</v>
-      </c>
-      <c r="U59" t="inlineStr">
-        <is>
-          <t>Travel to Asia and the Middle East</t>
-        </is>
-      </c>
-      <c r="V59" t="inlineStr">
-        <is>
-          <t>I love to dance to all kinds of music but especially afrobeat. </t>
-        </is>
-      </c>
-      <c r="W59" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -6003,32 +5963,32 @@
         </is>
       </c>
       <c r="E60" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F60" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Mekesha Heather Armstrong </t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Eastern Standard Time</t>
+        </is>
+      </c>
+      <c r="I60" t="s">
+        <v>53</v>
+      </c>
+      <c r="J60" t="s">
+        <v>45</v>
+      </c>
+      <c r="K60" t="s">
         <v>12</v>
       </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>Mekesha Heather Armstrong </t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Eastern Standard Time</t>
-        </is>
-      </c>
-      <c r="I60" t="s">
-        <v>57</v>
-      </c>
-      <c r="J60" t="s">
-        <v>48</v>
-      </c>
-      <c r="K60" t="s">
-        <v>13</v>
-      </c>
-      <c r="L60" t="s">
-        <v>22</v>
+      <c r="L60" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -6036,7 +5996,7 @@
         </is>
       </c>
       <c r="N60" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -6044,7 +6004,7 @@
         </is>
       </c>
       <c r="P60" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -6062,7 +6022,7 @@
         </is>
       </c>
       <c r="T60" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
@@ -6075,12 +6035,12 @@
         </is>
       </c>
       <c r="W60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:23">
       <c r="A61" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -6098,32 +6058,32 @@
         </is>
       </c>
       <c r="E61" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F61" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Andy White</t>
+        </is>
+      </c>
+      <c r="H61" t="s">
+        <v>24</v>
+      </c>
+      <c r="I61" t="s">
+        <v>35</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;</t>
+        </is>
+      </c>
+      <c r="K61" t="s">
         <v>12</v>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>Andy White</t>
-        </is>
-      </c>
-      <c r="H61" t="s">
-        <v>26</v>
-      </c>
-      <c r="I61" t="s">
-        <v>38</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;</t>
-        </is>
-      </c>
-      <c r="K61" t="s">
-        <v>13</v>
-      </c>
-      <c r="L61" t="s">
-        <v>32</v>
+      <c r="L61" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
@@ -6131,21 +6091,21 @@
         </is>
       </c>
       <c r="N61" t="s">
+        <v>5</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Support development and benefit from networking and insight from mentee</t>
+        </is>
+      </c>
+      <c r="P61" t="s">
         <v>6</v>
       </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>Support development and benefit from networking and insight from mentee</t>
-        </is>
-      </c>
-      <c r="P61" t="s">
-        <v>7</v>
-      </c>
       <c r="W61" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" ht="16.5">
       <c r="A62" t="inlineStr">
         <is>
           <t>Paige Greenaway</t>
@@ -6167,10 +6127,10 @@
         </is>
       </c>
       <c r="E62" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -6191,12 +6151,10 @@
         </is>
       </c>
       <c r="K62" t="s">
-        <v>13</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>No more than 2</t>
-        </is>
+        <v>12</v>
+      </c>
+      <c r="L62" s="2">
+        <v>2</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
@@ -6204,16 +6162,16 @@
         </is>
       </c>
       <c r="N62" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>I want to be able to connect with employees outside my area of responsibility and learn from Amentum's emerging talent. I also love the opportunity of being able to pass along my career experiences, to include applicable lessons learned and challenges overcome to get to where I am today...in the hopes that it will help someone in their career path.</t>
+        </is>
+      </c>
+      <c r="P62" t="s">
         <v>6</v>
       </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>I want to be able to connect with employees outside my area of responsibility and learn from Amentum's emerging talent. I also love the opportunity of being able to pass along my career experiences, to include applicable lessons learned and challenges overcome to get to where I am today...in the hopes that it will help someone in their career path.</t>
-        </is>
-      </c>
-      <c r="P62" t="s">
-        <v>7</v>
-      </c>
       <c r="Q62" t="inlineStr">
         <is>
           <t>Spending time with family &amp; friends</t>
@@ -6230,20 +6188,20 @@
         </is>
       </c>
       <c r="T62" t="s">
+        <v>8</v>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>Visit Scotland</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>I wanted to be an auto mechanic when I graduated high school, several years later I married one!</t>
+        </is>
+      </c>
+      <c r="W62" t="s">
         <v>9</v>
-      </c>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t>Visit Scotland</t>
-        </is>
-      </c>
-      <c r="V62" t="inlineStr">
-        <is>
-          <t>I wanted to be an auto mechanic when I graduated high school, several years later I married one!</t>
-        </is>
-      </c>
-      <c r="W62" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -6263,10 +6221,10 @@
         </is>
       </c>
       <c r="D63" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E63" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F63" t="s">
         <v>1</v>
@@ -6277,10 +6235,10 @@
         </is>
       </c>
       <c r="H63" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I63" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -6288,10 +6246,10 @@
         </is>
       </c>
       <c r="K63" t="s">
-        <v>13</v>
-      </c>
-      <c r="L63" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
@@ -6299,7 +6257,7 @@
         </is>
       </c>
       <c r="N63" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6307,7 +6265,7 @@
         </is>
       </c>
       <c r="P63" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -6320,23 +6278,23 @@
         </is>
       </c>
       <c r="S63" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="T63" t="s">
+        <v>8</v>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>Travel for a month through Portgual</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>I have a slight obsession with buying pretty crystals like I'm Spencer Pratt</t>
+        </is>
+      </c>
+      <c r="W63" t="s">
         <v>9</v>
-      </c>
-      <c r="U63" t="inlineStr">
-        <is>
-          <t>Travel for a month through Portgual</t>
-        </is>
-      </c>
-      <c r="V63" t="inlineStr">
-        <is>
-          <t>I have a slight obsession with buying pretty crystals like I'm Spencer Pratt</t>
-        </is>
-      </c>
-      <c r="W63" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -6361,10 +6319,10 @@
         </is>
       </c>
       <c r="E64" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -6372,7 +6330,7 @@
         </is>
       </c>
       <c r="H64" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I64" t="s">
         <v>3</v>
@@ -6383,122 +6341,122 @@
         </is>
       </c>
       <c r="K64" t="s">
-        <v>13</v>
-      </c>
-      <c r="L64" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="M64" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="N64" t="s">
+        <v>5</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>I am excited about helping the next generation of our leaders and managers gain perspective, knowledge, and confidence in their own abilities. </t>
+        </is>
+      </c>
+      <c r="P64" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>Homebrewing, building computers, motorcycling</t>
+        </is>
+      </c>
+      <c r="R64" t="s">
+        <v>60</v>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>Fiction</t>
+        </is>
+      </c>
+      <c r="T64" t="s">
+        <v>8</v>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>Taking a flight in a WW2 aircraft</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>My wife asked him, and the doctor was willing to step aside and look over my shoulder as I delivered our second child. </t>
+        </is>
+      </c>
+      <c r="W64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" ht="16.5">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Liz Shea</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>63313</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>elizabeth.shea@us.amentum.com</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>VP, Security &amp; Functional Services </t>
+        </is>
+      </c>
+      <c r="E65" t="s">
+        <v>82</v>
+      </c>
+      <c r="F65" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Michele St. Mary </t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>eastern </t>
+        </is>
+      </c>
+      <c r="I65" t="s">
+        <v>28</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;</t>
+        </is>
+      </c>
+      <c r="K65" t="s">
+        <v>19</v>
+      </c>
+      <c r="L65" s="2">
+        <v>2</v>
+      </c>
+      <c r="M65" t="s">
+        <v>50</v>
+      </c>
+      <c r="N65" t="s">
+        <v>5</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>As someone who had a mentor early in their career, I understand the benefits of the program and believe my experience can help someone else in their career development. </t>
+        </is>
+      </c>
+      <c r="P65" t="s">
         <v>6</v>
       </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>I am excited about helping the next generation of our leaders and managers gain perspective, knowledge, and confidence in their own abilities. </t>
-        </is>
-      </c>
-      <c r="P64" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>Homebrewing, building computers, motorcycling</t>
-        </is>
-      </c>
-      <c r="R64" t="s">
-        <v>64</v>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>Fiction</t>
-        </is>
-      </c>
-      <c r="T64" t="s">
+      <c r="W65" t="s">
         <v>9</v>
-      </c>
-      <c r="U64" t="inlineStr">
-        <is>
-          <t>Taking a flight in a WW2 aircraft</t>
-        </is>
-      </c>
-      <c r="V64" t="inlineStr">
-        <is>
-          <t>My wife asked him, and the doctor was willing to step aside and look over my shoulder as I delivered our second child. </t>
-        </is>
-      </c>
-      <c r="W64" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Liz Shea</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>63313</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>elizabeth.shea@us.amentum.com</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>VP, Security &amp; Functional Services </t>
-        </is>
-      </c>
-      <c r="E65" t="s">
-        <v>87</v>
-      </c>
-      <c r="F65" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>Michele St. Mary </t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>eastern </t>
-        </is>
-      </c>
-      <c r="I65" t="s">
-        <v>31</v>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;</t>
-        </is>
-      </c>
-      <c r="K65" t="s">
-        <v>21</v>
-      </c>
-      <c r="L65" t="s">
-        <v>27</v>
-      </c>
-      <c r="M65" t="s">
-        <v>54</v>
-      </c>
-      <c r="N65" t="s">
-        <v>6</v>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>As someone who had a mentor early in their career, I understand the benefits of the program and believe my experience can help someone else in their career development. </t>
-        </is>
-      </c>
-      <c r="P65" t="s">
-        <v>7</v>
-      </c>
-      <c r="W65" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -6523,32 +6481,32 @@
         </is>
       </c>
       <c r="E66" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F66" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>John Heller</t>
+        </is>
+      </c>
+      <c r="H66" t="s">
+        <v>43</v>
+      </c>
+      <c r="I66" t="s">
+        <v>69</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;</t>
+        </is>
+      </c>
+      <c r="K66" t="s">
         <v>12</v>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>John Heller</t>
-        </is>
-      </c>
-      <c r="H66" t="s">
-        <v>46</v>
-      </c>
-      <c r="I66" t="s">
-        <v>73</v>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Innovation and Creativity - Capacity to drive and support innovative initiatives, and to think creatively in problem-solving.;Project and Program Management - Proficiency in managing complex projects or programs from initiation to completion.;</t>
-        </is>
-      </c>
-      <c r="K66" t="s">
-        <v>13</v>
-      </c>
-      <c r="L66" t="s">
-        <v>32</v>
+      <c r="L66" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
@@ -6556,7 +6514,7 @@
         </is>
       </c>
       <c r="N66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6564,35 +6522,35 @@
         </is>
       </c>
       <c r="P66" t="s">
+        <v>14</v>
+      </c>
+      <c r="W66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" ht="16.5">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Nora Rule</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>M82371</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>nora.rule@us.amentum.com</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Senior Director, Associate General Counsel</t>
+        </is>
+      </c>
+      <c r="E67" t="s">
         <v>16</v>
-      </c>
-      <c r="W66" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Nora Rule</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>M82371</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>nora.rule@us.amentum.com</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Senior Director, Associate General Counsel</t>
-        </is>
-      </c>
-      <c r="E67" t="s">
-        <v>18</v>
       </c>
       <c r="F67" t="s">
         <v>1</v>
@@ -6603,10 +6561,10 @@
         </is>
       </c>
       <c r="H67" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I67" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -6614,27 +6572,25 @@
         </is>
       </c>
       <c r="K67" t="s">
-        <v>13</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>1 to 2</t>
-        </is>
+        <v>12</v>
+      </c>
+      <c r="L67" s="2">
+        <v>2</v>
       </c>
       <c r="M67" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N67" t="s">
+        <v>5</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>As a former military officer I am very familiar with these types of mentoring programs and understand how effective and important they are.  I am not a part of any ACN yet because I am unable to access certain Amentum platforms because I am legacy Jacobs and have not fully migrated.  Otherwise I would be interested i.e. veterans and women network.  I have mentored many young professionals throughout my career, mostly lawyers but I'm happy and open to mentoring other professionals as well.</t>
+        </is>
+      </c>
+      <c r="P67" t="s">
         <v>6</v>
       </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>As a former military officer I am very familiar with these types of mentoring programs and understand how effective and important they are.  I am not a part of any ACN yet because I am unable to access certain Amentum platforms because I am legacy Jacobs and have not fully migrated.  Otherwise I would be interested i.e. veterans and women network.  I have mentored many young professionals throughout my career, mostly lawyers but I'm happy and open to mentoring other professionals as well.</t>
-        </is>
-      </c>
-      <c r="P67" t="s">
-        <v>7</v>
-      </c>
       <c r="Q67" t="inlineStr">
         <is>
           <t>all things boys' sports activities, music, golf and shopping</t>
@@ -6651,7 +6607,7 @@
         </is>
       </c>
       <c r="T67" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
@@ -6664,10 +6620,10 @@
         </is>
       </c>
       <c r="W67" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" ht="16.5">
       <c r="A68" t="inlineStr">
         <is>
           <t>Nicole Purnell-Davis</t>
@@ -6689,10 +6645,10 @@
         </is>
       </c>
       <c r="E68" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -6700,27 +6656,25 @@
         </is>
       </c>
       <c r="H68" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I68" t="s">
         <v>3</v>
       </c>
       <c r="J68" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K68" t="s">
         <v>4</v>
       </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>2, currently mentoring one from legacy iCMS Program</t>
-        </is>
+      <c r="L68" s="2">
+        <v>2</v>
       </c>
       <c r="M68" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="N68" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6729,7 +6683,7 @@
         </is>
       </c>
       <c r="P68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -6747,20 +6701,20 @@
         </is>
       </c>
       <c r="T68" t="s">
+        <v>8</v>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>Travel to Bali</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>I played college basketball.</t>
+        </is>
+      </c>
+      <c r="W68" t="s">
         <v>9</v>
-      </c>
-      <c r="U68" t="inlineStr">
-        <is>
-          <t>Travel to Bali</t>
-        </is>
-      </c>
-      <c r="V68" t="inlineStr">
-        <is>
-          <t>I played college basketball.</t>
-        </is>
-      </c>
-      <c r="W68" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -6785,47 +6739,47 @@
         </is>
       </c>
       <c r="E69" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>CFO</t>
+        </is>
+      </c>
+      <c r="H69" t="s">
+        <v>52</v>
+      </c>
+      <c r="I69" t="s">
+        <v>35</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;</t>
+        </is>
+      </c>
+      <c r="K69" t="s">
         <v>12</v>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>CFO</t>
-        </is>
-      </c>
-      <c r="H69" t="s">
-        <v>56</v>
-      </c>
-      <c r="I69" t="s">
-        <v>38</v>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Decision Making and Problem Solving - Capacity to analyze complex situations, consider multiple perspectives, and make sound decisions in a timely manner.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;Communication and Interpersonal Skills - Strong verbal and written communication skills, including the ability to convey complex information clearly and effectively.;Financial Acumen - Proficiency in financial management, including budgeting, forecasting, and interpreting financial reports.;Team Development and Talent Management - Expertise in identifying, developing, and retaining top talent, as well as creating high-performing teams.;</t>
-        </is>
-      </c>
-      <c r="K69" t="s">
-        <v>13</v>
-      </c>
-      <c r="L69" t="s">
-        <v>22</v>
+      <c r="L69" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="M69" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N69" t="s">
+        <v>5</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Passion for developing talent and coaching</t>
+        </is>
+      </c>
+      <c r="P69" t="s">
         <v>6</v>
       </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>Passion for developing talent and coaching</t>
-        </is>
-      </c>
-      <c r="P69" t="s">
-        <v>7</v>
-      </c>
       <c r="Q69" t="inlineStr">
         <is>
           <t>Paddle boarding</t>
@@ -6837,13 +6791,13 @@
         </is>
       </c>
       <c r="T69" t="s">
+        <v>8</v>
+      </c>
+      <c r="W69" t="s">
         <v>9</v>
       </c>
-      <c r="W69" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23">
+    </row>
+    <row r="70" spans="1:23" ht="16.5">
       <c r="A70" t="inlineStr">
         <is>
           <t>Jon Rosiska</t>
@@ -6865,10 +6819,10 @@
         </is>
       </c>
       <c r="E70" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -6876,7 +6830,7 @@
         </is>
       </c>
       <c r="H70" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I70" t="s">
         <v>3</v>
@@ -6887,34 +6841,32 @@
         </is>
       </c>
       <c r="K70" t="s">
-        <v>13</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>High several insite mgr that I support mentoring, I could support 1 additional in this program.</t>
-        </is>
+        <v>12</v>
+      </c>
+      <c r="L70" s="2">
+        <v>1</v>
       </c>
       <c r="M70" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N70" t="s">
+        <v>5</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>Enjoying sharing career lessons learned and aid in developing future leaders and careers</t>
+        </is>
+      </c>
+      <c r="P70" t="s">
         <v>6</v>
       </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>Enjoying sharing career lessons learned and aid in developing future leaders and careers</t>
-        </is>
-      </c>
-      <c r="P70" t="s">
-        <v>7</v>
-      </c>
       <c r="Q70" t="inlineStr">
         <is>
           <t>Landscape Photography/Backpacking</t>
         </is>
       </c>
       <c r="R70" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6922,20 +6874,20 @@
         </is>
       </c>
       <c r="T70" t="s">
+        <v>8</v>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>Visit Iguazu Falls</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>Graduated HS from Germany, and have work 10 yrs in overseas assignments</t>
+        </is>
+      </c>
+      <c r="W70" t="s">
         <v>9</v>
-      </c>
-      <c r="U70" t="inlineStr">
-        <is>
-          <t>Visit Iguazu Falls</t>
-        </is>
-      </c>
-      <c r="V70" t="inlineStr">
-        <is>
-          <t>Graduated HS from Germany, and have work 10 yrs in overseas assignments</t>
-        </is>
-      </c>
-      <c r="W70" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -6955,19 +6907,19 @@
         </is>
       </c>
       <c r="D71" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E71" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G71" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H71" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I71" t="s">
         <v>3</v>
@@ -6978,10 +6930,10 @@
         </is>
       </c>
       <c r="K71" t="s">
-        <v>13</v>
-      </c>
-      <c r="L71" t="s">
-        <v>32</v>
+        <v>12</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
@@ -6989,16 +6941,16 @@
         </is>
       </c>
       <c r="N71" t="s">
+        <v>5</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>I enjoyed my previously mentorship experience and look forward to continuing the practice. </t>
+        </is>
+      </c>
+      <c r="P71" t="s">
         <v>6</v>
       </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>I enjoyed my previously mentorship experience and look forward to continuing the practice. </t>
-        </is>
-      </c>
-      <c r="P71" t="s">
-        <v>7</v>
-      </c>
       <c r="Q71" t="inlineStr">
         <is>
           <t>Travel, boating/beach/foodie</t>
@@ -7015,7 +6967,7 @@
         </is>
       </c>
       <c r="T71" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
@@ -7023,10 +6975,10 @@
         </is>
       </c>
       <c r="W71" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" ht="16.5">
       <c r="A72" t="inlineStr">
         <is>
           <t>Dave Marlowe</t>
@@ -7053,10 +7005,10 @@
         </is>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G72" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -7064,7 +7016,7 @@
         </is>
       </c>
       <c r="I72" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -7072,15 +7024,13 @@
         </is>
       </c>
       <c r="K72" t="s">
-        <v>75</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>two</t>
-        </is>
+        <v>71</v>
+      </c>
+      <c r="L72" s="2">
+        <v>2</v>
       </c>
       <c r="N72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7088,7 +7038,7 @@
         </is>
       </c>
       <c r="P72" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -7106,112 +7056,115 @@
         </is>
       </c>
       <c r="T72" t="s">
+        <v>8</v>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>learn to blacksmith</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>i drive a 1970 VW Bus</t>
+        </is>
+      </c>
+      <c r="W72" t="s">
         <v>9</v>
       </c>
-      <c r="U72" t="inlineStr">
-        <is>
-          <t>learn to blacksmith</t>
-        </is>
-      </c>
-      <c r="V72" t="inlineStr">
-        <is>
-          <t>i drive a 1970 VW Bus</t>
-        </is>
-      </c>
-      <c r="W72" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="73" spans="1:23" ht="16.5">
-      <c r="A73" s="2" t="inlineStr">
+      <c r="A73" t="inlineStr">
         <is>
           <t>Yvette Johnson</t>
         </is>
       </c>
-      <c r="B73" s="2" t="inlineStr">
+      <c r="B73" t="inlineStr">
         <is>
           <t>574156</t>
         </is>
       </c>
-      <c r="C73" s="2" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>yvette.johnson@Amentum.com</t>
         </is>
       </c>
-      <c r="D73" s="2" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>Sr. Manager, Enterprise Learning &amp; Development</t>
         </is>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I73" s="2" t="s">
+      <c r="E73" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" t="s">
+        <v>33</v>
+      </c>
+      <c r="G73" t="s">
+        <v>80</v>
+      </c>
+      <c r="H73" t="s">
+        <v>43</v>
+      </c>
+      <c r="I73" t="s">
+        <v>28</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;</t>
+        </is>
+      </c>
+      <c r="K73" t="s">
+        <v>4</v>
+      </c>
+      <c r="L73" s="3">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>Amentum Black Excellence Network;Amentum Women's Network;</t>
+        </is>
+      </c>
+      <c r="N73" s="0" t="inlineStr">
+        <is>
+          <t>no preference </t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>I believe this a great opportunity to expand my network and expertise.</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>Traveling </t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>Rom/Com, Action</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>Mystery</t>
+        </is>
+      </c>
+      <c r="S73" t="s">
         <v>31</v>
       </c>
-      <c r="J73" s="2" t="inlineStr">
-        <is>
-          <t>Strategic Networking and Relationship Building - Skill in cultivating and maintaining relationships with key stakeholders, both internally and externally.;Strategic Vision and Planning - Ability to set long-term goals, formulate strategies, and make decisions that align with organizational objectives.;Leadership and Influence - Demonstrated ability to lead, inspire, and motivate teams, as well as influence stakeholders at various levels.;</t>
-        </is>
-      </c>
-      <c r="K73" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L73" s="2" t="inlineStr">
-        <is>
-          <t>Amentum Black Excellence Network;Amentum Women's Network;</t>
-        </is>
-      </c>
-      <c r="M73" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N73" s="2" t="inlineStr">
-        <is>
-          <t>I believe this a great opportunity to expand my network and expertise.</t>
-        </is>
-      </c>
-      <c r="O73" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P73" s="2" t="inlineStr">
-        <is>
-          <t>Traveling </t>
-        </is>
-      </c>
-      <c r="Q73" s="2" t="inlineStr">
-        <is>
-          <t>Rom/Com, Action</t>
-        </is>
-      </c>
-      <c r="R73" s="2" t="inlineStr">
-        <is>
-          <t>Mystery</t>
-        </is>
-      </c>
-      <c r="S73" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T73" s="2" t="inlineStr">
+      <c r="T73" t="inlineStr">
         <is>
           <t>Travel to Australia</t>
         </is>
       </c>
-      <c r="U73" s="2" t="inlineStr">
+      <c r="U73" t="inlineStr">
         <is>
           <t>I married my high school sweetheart years after we graduated.</t>
         </is>
       </c>
-      <c r="V73" s="2" t="s">
-        <v>10</v>
+      <c r="V73" s="0"/>
+      <c r="W73" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
